--- a/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.162558771989542</v>
+        <v>1.132129380143077</v>
       </c>
       <c r="D3">
         <v>0.8995120634713665</v>
       </c>
       <c r="E3">
-        <v>1.132129380143077</v>
+        <v>0.8995120634713665</v>
       </c>
       <c r="F3">
         <v>1.162558771989542</v>
       </c>
       <c r="G3">
-        <v>1.0191059333043</v>
+        <v>1.162558771989542</v>
       </c>
       <c r="H3">
         <v>1.093169307656317</v>
       </c>
       <c r="I3">
-        <v>0.9479703448285337</v>
+        <v>1.0191059333043</v>
       </c>
       <c r="J3">
-        <v>0.8995120634713665</v>
+        <v>0.9479703448285336</v>
       </c>
       <c r="K3">
         <v>1.162558771989542</v>
@@ -653,7 +665,7 @@
         <v>1.04160358375692</v>
       </c>
       <c r="P3">
-        <v>1.064733405201329</v>
+        <v>1.064733405201328</v>
       </c>
       <c r="Q3">
         <v>1.064733405201328</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.469071175509284</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="D4">
         <v>0.7815059395026643</v>
       </c>
       <c r="E4">
-        <v>1.150249053117235</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="F4">
         <v>1.469071175509284</v>
       </c>
       <c r="G4">
-        <v>1.020168594590092</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="H4">
         <v>1.452668710387369</v>
       </c>
       <c r="I4">
+        <v>1.020168594590092</v>
+      </c>
+      <c r="J4">
         <v>0.9713222947841953</v>
-      </c>
-      <c r="J4">
-        <v>0.7815059395026643</v>
       </c>
       <c r="K4">
         <v>1.469071175509284</v>
@@ -738,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.966275987331352</v>
+        <v>1.20237374955589</v>
       </c>
       <c r="D5">
         <v>1.696445512038119</v>
       </c>
       <c r="E5">
-        <v>1.20237374955589</v>
+        <v>1.696445512038119</v>
       </c>
       <c r="F5">
-        <v>1.966275987331352</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="G5">
-        <v>1.576715572770089</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="H5">
         <v>1.604185594425074</v>
       </c>
       <c r="I5">
+        <v>1.576715572770089</v>
+      </c>
+      <c r="J5">
         <v>0.4508786257899174</v>
       </c>
-      <c r="J5">
-        <v>1.696445512038119</v>
-      </c>
       <c r="K5">
-        <v>1.966275987331352</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="L5">
         <v>1.20237374955589</v>
@@ -780,7 +792,7 @@
         <v>1.621698416308454</v>
       </c>
       <c r="Q5">
-        <v>1.621698416308454</v>
+        <v>1.621698416308453</v>
       </c>
       <c r="R5">
         <v>1.707842809064178</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.010203963243177</v>
+        <v>4.156387364023578</v>
       </c>
       <c r="D6">
         <v>0.01090854583517811</v>
       </c>
       <c r="E6">
-        <v>4.156387364023578</v>
+        <v>0.01090854583517811</v>
       </c>
       <c r="F6">
         <v>5.010203963243177</v>
       </c>
       <c r="G6">
-        <v>0.3987476193353456</v>
+        <v>5.010203963243177</v>
       </c>
       <c r="H6">
         <v>2.342314963145484</v>
       </c>
       <c r="I6">
-        <v>0.1979291070249145</v>
+        <v>0.3987476193353456</v>
       </c>
       <c r="J6">
-        <v>0.01090854583517811</v>
+        <v>0.1979291070249144</v>
       </c>
       <c r="K6">
         <v>5.010203963243177</v>
@@ -845,10 +857,10 @@
         <v>3.059166624367311</v>
       </c>
       <c r="R6">
-        <v>3.546925959086278</v>
+        <v>3.546925959086277</v>
       </c>
       <c r="S6">
-        <v>3.546925959086278</v>
+        <v>3.546925959086277</v>
       </c>
       <c r="T6">
         <v>2.019415260434613</v>
@@ -862,49 +874,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.060274422946103</v>
+        <v>1.003885234693759</v>
       </c>
       <c r="D7">
-        <v>0.9529256960707623</v>
+        <v>0.9529256960707637</v>
       </c>
       <c r="E7">
-        <v>1.003885234693757</v>
+        <v>0.9529256960707637</v>
       </c>
       <c r="F7">
-        <v>1.060274422946103</v>
+        <v>1.060274422946101</v>
       </c>
       <c r="G7">
+        <v>1.060274422946101</v>
+      </c>
+      <c r="H7">
+        <v>1.009095792120288</v>
+      </c>
+      <c r="I7">
         <v>1.026649561624163</v>
       </c>
-      <c r="H7">
-        <v>1.009095792120287</v>
-      </c>
-      <c r="I7">
-        <v>1.013605388495307</v>
-      </c>
       <c r="J7">
-        <v>0.9529256960707623</v>
+        <v>1.013605388495306</v>
       </c>
       <c r="K7">
-        <v>1.060274422946103</v>
+        <v>1.060274422946101</v>
       </c>
       <c r="L7">
-        <v>1.003885234693757</v>
+        <v>1.003885234693759</v>
       </c>
       <c r="M7">
-        <v>0.9784054653822596</v>
+        <v>0.9784054653822611</v>
       </c>
       <c r="N7">
-        <v>0.9784054653822596</v>
+        <v>0.9784054653822611</v>
       </c>
       <c r="O7">
-        <v>0.9886355742949352</v>
+        <v>0.9886355742949368</v>
       </c>
       <c r="P7">
-        <v>1.00569511790354</v>
+        <v>1.005695117903541</v>
       </c>
       <c r="Q7">
-        <v>1.00569511790354</v>
+        <v>1.005695117903541</v>
       </c>
       <c r="R7">
         <v>1.019339944164181</v>
@@ -913,7 +925,7 @@
         <v>1.019339944164181</v>
       </c>
       <c r="T7">
-        <v>1.011072682658396</v>
+        <v>1.011072682658397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.108465159140368</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="D8">
-        <v>0.9450547350057095</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="E8">
-        <v>0.9913370598085007</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="F8">
-        <v>1.108465159140368</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="G8">
-        <v>1.03236838550771</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="H8">
         <v>1.020635277025776</v>
       </c>
       <c r="I8">
-        <v>1.014438977574355</v>
+        <v>1.032368385507709</v>
       </c>
       <c r="J8">
-        <v>0.9450547350057095</v>
+        <v>1.014438977574353</v>
       </c>
       <c r="K8">
-        <v>1.108465159140368</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="L8">
-        <v>0.9913370598085007</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="M8">
-        <v>0.9681958974071051</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="N8">
-        <v>0.9681958974071051</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="O8">
-        <v>0.9856756906133288</v>
+        <v>0.9856756906133297</v>
       </c>
       <c r="P8">
-        <v>1.014952317984859</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="Q8">
-        <v>1.014952317984859</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="R8">
         <v>1.038330528273737</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.344955730875354</v>
+        <v>1.074318518456329</v>
       </c>
       <c r="D9">
-        <v>0.9200171289721006</v>
+        <v>0.9200171289721004</v>
       </c>
       <c r="E9">
-        <v>1.074318518456329</v>
+        <v>0.9200171289721004</v>
       </c>
       <c r="F9">
         <v>1.344955730875354</v>
       </c>
       <c r="G9">
-        <v>1.028158390196445</v>
+        <v>1.344955730875354</v>
       </c>
       <c r="H9">
         <v>1.014384596804231</v>
       </c>
       <c r="I9">
+        <v>1.028158390196445</v>
+      </c>
+      <c r="J9">
         <v>0.9942567931185642</v>
-      </c>
-      <c r="J9">
-        <v>0.9200171289721006</v>
       </c>
       <c r="K9">
         <v>1.344955730875354</v>
@@ -1016,10 +1028,10 @@
         <v>1.074318518456329</v>
       </c>
       <c r="M9">
-        <v>0.9971678237142149</v>
+        <v>0.9971678237142148</v>
       </c>
       <c r="N9">
-        <v>0.9971678237142149</v>
+        <v>0.9971678237142148</v>
       </c>
       <c r="O9">
         <v>1.002906748077554</v>
@@ -1048,40 +1060,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.605050621820924</v>
+        <v>0.9464413210042044</v>
       </c>
       <c r="D10">
-        <v>0.9641873814027396</v>
+        <v>0.9641873814027394</v>
       </c>
       <c r="E10">
-        <v>0.9464413210042044</v>
+        <v>0.9641873814027394</v>
       </c>
       <c r="F10">
-        <v>1.605050621820924</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="G10">
-        <v>1.001797515079361</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="H10">
         <v>1.045836125114503</v>
       </c>
       <c r="I10">
+        <v>1.00179751507936</v>
+      </c>
+      <c r="J10">
         <v>1.069886664788025</v>
       </c>
-      <c r="J10">
-        <v>0.9641873814027396</v>
-      </c>
       <c r="K10">
-        <v>1.605050621820924</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="L10">
         <v>0.9464413210042044</v>
       </c>
       <c r="M10">
-        <v>0.9553143512034721</v>
+        <v>0.9553143512034719</v>
       </c>
       <c r="N10">
-        <v>0.9553143512034721</v>
+        <v>0.9553143512034719</v>
       </c>
       <c r="O10">
         <v>0.9854882758404825</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.831006857798118</v>
+        <v>0.993091641440385</v>
       </c>
       <c r="D11">
         <v>0.3348744261900233</v>
       </c>
       <c r="E11">
-        <v>0.993091641440385</v>
+        <v>0.3348744261900233</v>
       </c>
       <c r="F11">
         <v>1.831006857798118</v>
       </c>
       <c r="G11">
+        <v>1.831006857798118</v>
+      </c>
+      <c r="H11">
+        <v>1.253579745862917</v>
+      </c>
+      <c r="I11">
         <v>1.5374990944531</v>
       </c>
-      <c r="H11">
-        <v>1.253579745862918</v>
-      </c>
-      <c r="I11">
-        <v>1.086685070217449</v>
-      </c>
       <c r="J11">
-        <v>0.3348744261900233</v>
+        <v>1.08668507021745</v>
       </c>
       <c r="K11">
         <v>1.831006857798118</v>
@@ -1146,7 +1158,7 @@
         <v>0.6639830338152042</v>
       </c>
       <c r="O11">
-        <v>0.860515271164442</v>
+        <v>0.8605152711644419</v>
       </c>
       <c r="P11">
         <v>1.052990975142842</v>
@@ -1172,31 +1184,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9733623593361578</v>
+        <v>2.455860173810053</v>
       </c>
       <c r="D12">
-        <v>0.0008011628315111555</v>
+        <v>0.000801162831511158</v>
       </c>
       <c r="E12">
-        <v>2.455860173810053</v>
+        <v>0.000801162831511158</v>
       </c>
       <c r="F12">
-        <v>0.9733623593361578</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="G12">
-        <v>0.0007674696421989483</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="H12">
-        <v>1.049289727798783</v>
+        <v>1.049289727798779</v>
       </c>
       <c r="I12">
-        <v>0.6476216206216454</v>
+        <v>0.0007674696421989481</v>
       </c>
       <c r="J12">
-        <v>0.0008011628315111555</v>
+        <v>0.6476216206216451</v>
       </c>
       <c r="K12">
-        <v>0.9733623593361578</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="L12">
         <v>2.455860173810053</v>
@@ -1208,7 +1220,7 @@
         <v>1.228330668320782</v>
       </c>
       <c r="O12">
-        <v>1.168650354813449</v>
+        <v>1.168650354813448</v>
       </c>
       <c r="P12">
         <v>1.143341231992574</v>
@@ -1223,7 +1235,7 @@
         <v>1.10084651382847</v>
       </c>
       <c r="T12">
-        <v>0.8546170856733917</v>
+        <v>0.8546170856733908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1851860236774948</v>
+        <v>0.4508514240154859</v>
       </c>
       <c r="D13">
-        <v>2.937808520067117</v>
+        <v>2.937808520067123</v>
       </c>
       <c r="E13">
-        <v>0.4508514240154859</v>
+        <v>2.937808520067123</v>
       </c>
       <c r="F13">
-        <v>0.1851860236774948</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="G13">
-        <v>2.724418081173898</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="H13">
-        <v>0.1675984646413447</v>
+        <v>0.167598464641344</v>
       </c>
       <c r="I13">
-        <v>0.751729088799597</v>
+        <v>2.724418081173896</v>
       </c>
       <c r="J13">
-        <v>2.937808520067117</v>
+        <v>0.7517290887995984</v>
       </c>
       <c r="K13">
-        <v>0.1851860236774948</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="L13">
         <v>0.4508514240154859</v>
       </c>
       <c r="M13">
-        <v>1.694329972041301</v>
+        <v>1.694329972041305</v>
       </c>
       <c r="N13">
-        <v>1.694329972041301</v>
+        <v>1.694329972041305</v>
       </c>
       <c r="O13">
-        <v>1.185419469574649</v>
+        <v>1.185419469574651</v>
       </c>
       <c r="P13">
-        <v>1.191281989253366</v>
+        <v>1.191281989253368</v>
       </c>
       <c r="Q13">
-        <v>1.191281989253366</v>
+        <v>1.191281989253368</v>
       </c>
       <c r="R13">
-        <v>0.9397579978593982</v>
+        <v>0.9397579978594</v>
       </c>
       <c r="S13">
-        <v>0.9397579978593982</v>
+        <v>0.9397579978594</v>
       </c>
       <c r="T13">
-        <v>1.202931933729156</v>
+        <v>1.202931933729157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001491377477314469</v>
+        <v>0.4295785948804509</v>
       </c>
       <c r="D14">
-        <v>5.231471117892404</v>
+        <v>5.23147111789241</v>
       </c>
       <c r="E14">
-        <v>0.429578594880451</v>
+        <v>5.23147111789241</v>
       </c>
       <c r="F14">
-        <v>0.001491377477314469</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="G14">
-        <v>0.3768814454090605</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="H14">
         <v>3.419812016970432</v>
       </c>
       <c r="I14">
-        <v>0.1532284538066767</v>
+        <v>0.3768814454090609</v>
       </c>
       <c r="J14">
-        <v>5.231471117892404</v>
+        <v>0.1532284538066766</v>
       </c>
       <c r="K14">
-        <v>0.001491377477314469</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="L14">
-        <v>0.429578594880451</v>
+        <v>0.4295785948804509</v>
       </c>
       <c r="M14">
-        <v>2.830524856386428</v>
+        <v>2.830524856386431</v>
       </c>
       <c r="N14">
-        <v>2.830524856386428</v>
+        <v>2.830524856386431</v>
       </c>
       <c r="O14">
-        <v>3.026953909914429</v>
+        <v>3.026953909914431</v>
       </c>
       <c r="P14">
-        <v>1.887513696750057</v>
+        <v>1.887513696750059</v>
       </c>
       <c r="Q14">
-        <v>1.887513696750057</v>
+        <v>1.887513696750059</v>
       </c>
       <c r="R14">
-        <v>1.416008116931871</v>
+        <v>1.416008116931873</v>
       </c>
       <c r="S14">
-        <v>1.416008116931871</v>
+        <v>1.416008116931873</v>
       </c>
       <c r="T14">
-        <v>1.60207716773939</v>
+        <v>1.602077167739391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4381435261136661</v>
+        <v>1.826986814728061</v>
       </c>
       <c r="D15">
-        <v>-6.389891926698307E-05</v>
+        <v>-6.389891926698433E-05</v>
       </c>
       <c r="E15">
-        <v>1.826986814728061</v>
+        <v>-6.389891926698433E-05</v>
       </c>
       <c r="F15">
         <v>0.4381435261136661</v>
       </c>
       <c r="G15">
-        <v>0.001705017452521931</v>
+        <v>0.4381435261136661</v>
       </c>
       <c r="H15">
         <v>1.67992267616932</v>
       </c>
       <c r="I15">
-        <v>2.03080385624034</v>
+        <v>0.001705017452521932</v>
       </c>
       <c r="J15">
-        <v>-6.389891926698307E-05</v>
+        <v>2.030803856240341</v>
       </c>
       <c r="K15">
         <v>0.4381435261136661</v>
@@ -1388,10 +1400,10 @@
         <v>1.826986814728061</v>
       </c>
       <c r="M15">
-        <v>0.9134614579043971</v>
+        <v>0.9134614579043973</v>
       </c>
       <c r="N15">
-        <v>0.9134614579043971</v>
+        <v>0.9134614579043973</v>
       </c>
       <c r="O15">
         <v>1.168948530659372</v>
@@ -1409,7 +1421,7 @@
         <v>0.6758024920090316</v>
       </c>
       <c r="T15">
-        <v>0.9962496652974403</v>
+        <v>0.9962496652974405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012374214605569</v>
+        <v>2.860038967180048</v>
       </c>
       <c r="D16">
-        <v>0.9582785635063008</v>
+        <v>0.2356014073041479</v>
       </c>
       <c r="E16">
-        <v>0.9850122672681521</v>
+        <v>0.2356014073041479</v>
       </c>
       <c r="F16">
-        <v>1.012374214605569</v>
+        <v>3.078204192836764</v>
       </c>
       <c r="G16">
-        <v>1.042397977460041</v>
+        <v>3.078204192836764</v>
       </c>
       <c r="H16">
-        <v>0.994399072519302</v>
+        <v>2.801810137181341</v>
       </c>
       <c r="I16">
-        <v>1.01402718631901</v>
+        <v>0.2197138088952312</v>
       </c>
       <c r="J16">
-        <v>0.9582785635063008</v>
+        <v>0.2375201373792806</v>
       </c>
       <c r="K16">
-        <v>1.012374214605569</v>
+        <v>3.078204192836764</v>
       </c>
       <c r="L16">
-        <v>0.9850122672681521</v>
+        <v>2.860038967180048</v>
       </c>
       <c r="M16">
-        <v>0.9716454153872265</v>
+        <v>1.547820187242098</v>
       </c>
       <c r="N16">
-        <v>0.9716454153872265</v>
+        <v>1.547820187242098</v>
       </c>
       <c r="O16">
-        <v>0.979229967764585</v>
+        <v>1.965816837221846</v>
       </c>
       <c r="P16">
-        <v>0.9852216817933407</v>
+        <v>2.057948189106987</v>
       </c>
       <c r="Q16">
-        <v>0.9852216817933407</v>
+        <v>2.057948189106987</v>
       </c>
       <c r="R16">
-        <v>0.9920098149963978</v>
+        <v>2.313012190039431</v>
       </c>
       <c r="S16">
-        <v>0.9920098149963978</v>
+        <v>2.313012190039431</v>
       </c>
       <c r="T16">
-        <v>1.001081546946396</v>
+        <v>1.572148108462802</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.074298229070821</v>
+        <v>2.254674683721381</v>
       </c>
       <c r="D17">
-        <v>0.9705210525561982</v>
+        <v>0.4652351043657622</v>
       </c>
       <c r="E17">
-        <v>1.055005758586</v>
+        <v>0.4652351043657622</v>
       </c>
       <c r="F17">
-        <v>1.074298229070821</v>
+        <v>2.390946748993873</v>
       </c>
       <c r="G17">
-        <v>1.032734754505196</v>
+        <v>2.390946748993873</v>
       </c>
       <c r="H17">
-        <v>1.028389557825304</v>
+        <v>2.195180936140081</v>
       </c>
       <c r="I17">
-        <v>1.007091286890714</v>
+        <v>0.4377720481633577</v>
       </c>
       <c r="J17">
-        <v>0.9705210525561982</v>
+        <v>0.4739007563994012</v>
       </c>
       <c r="K17">
-        <v>1.074298229070821</v>
+        <v>2.390946748993873</v>
       </c>
       <c r="L17">
-        <v>1.055005758586</v>
+        <v>2.254674683721381</v>
       </c>
       <c r="M17">
-        <v>1.012763405571099</v>
+        <v>1.359954894043572</v>
       </c>
       <c r="N17">
-        <v>1.012763405571099</v>
+        <v>1.359954894043572</v>
       </c>
       <c r="O17">
-        <v>1.017972122989167</v>
+        <v>1.638363574742408</v>
       </c>
       <c r="P17">
-        <v>1.03327501340434</v>
+        <v>1.703618845693672</v>
       </c>
       <c r="Q17">
-        <v>1.03327501340434</v>
+        <v>1.703618845693672</v>
       </c>
       <c r="R17">
-        <v>1.04353081732096</v>
+        <v>1.875450821518722</v>
       </c>
       <c r="S17">
-        <v>1.04353081732096</v>
+        <v>1.875450821518722</v>
       </c>
       <c r="T17">
-        <v>1.028006773239039</v>
+        <v>1.369618379630642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.462671171274368</v>
+        <v>0.9199786805971599</v>
       </c>
       <c r="D18">
-        <v>0.7912020731091431</v>
+        <v>1.001795574414096</v>
       </c>
       <c r="E18">
-        <v>0.7592886785693649</v>
+        <v>1.001795574414096</v>
       </c>
       <c r="F18">
-        <v>1.462671171274368</v>
+        <v>1.166565024506799</v>
       </c>
       <c r="G18">
-        <v>0.350854257084442</v>
+        <v>1.166565024506799</v>
       </c>
       <c r="H18">
-        <v>0.5788164687499811</v>
+        <v>0.9593171802728706</v>
       </c>
       <c r="I18">
-        <v>0.7799497475227609</v>
+        <v>0.9314239213411278</v>
       </c>
       <c r="J18">
-        <v>0.7912020731091431</v>
+        <v>0.9316327517967588</v>
       </c>
       <c r="K18">
-        <v>1.462671171274368</v>
+        <v>1.166565024506799</v>
       </c>
       <c r="L18">
-        <v>0.7592886785693649</v>
+        <v>0.9199786805971599</v>
       </c>
       <c r="M18">
-        <v>0.775245375839254</v>
+        <v>0.960887127505628</v>
       </c>
       <c r="N18">
-        <v>0.775245375839254</v>
+        <v>0.960887127505628</v>
       </c>
       <c r="O18">
-        <v>0.709769073476163</v>
+        <v>0.9603638117613755</v>
       </c>
       <c r="P18">
-        <v>1.004387307650959</v>
+        <v>1.029446426506018</v>
       </c>
       <c r="Q18">
-        <v>1.004387307650959</v>
+        <v>1.029446426506018</v>
       </c>
       <c r="R18">
-        <v>1.118958273556811</v>
+        <v>1.063726076006213</v>
       </c>
       <c r="S18">
-        <v>1.118958273556811</v>
+        <v>1.063726076006213</v>
       </c>
       <c r="T18">
-        <v>0.7871303993850099</v>
+        <v>0.9851188554881353</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.171527883761892</v>
+      </c>
+      <c r="D19">
+        <v>0.9549202107480491</v>
+      </c>
+      <c r="E19">
+        <v>0.9549202107480491</v>
+      </c>
+      <c r="F19">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="G19">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="H19">
+        <v>0.7062870760892345</v>
+      </c>
+      <c r="I19">
+        <v>1.370809860806322</v>
+      </c>
+      <c r="J19">
+        <v>1.046941123204391</v>
+      </c>
+      <c r="K19">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="L19">
+        <v>1.171527883761892</v>
+      </c>
+      <c r="M19">
+        <v>1.06322404725497</v>
+      </c>
+      <c r="N19">
+        <v>1.06322404725497</v>
+      </c>
+      <c r="O19">
+        <v>0.9442450568663917</v>
+      </c>
+      <c r="P19">
+        <v>0.9857984627428618</v>
+      </c>
+      <c r="Q19">
+        <v>0.9857984627428618</v>
+      </c>
+      <c r="R19">
+        <v>0.9470856704868075</v>
+      </c>
+      <c r="S19">
+        <v>0.9470856704868075</v>
+      </c>
+      <c r="T19">
+        <v>1.013572241388089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9850122672681534</v>
+      </c>
+      <c r="D20">
+        <v>0.9582785635063016</v>
+      </c>
+      <c r="E20">
+        <v>0.9582785635063016</v>
+      </c>
+      <c r="F20">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="G20">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="H20">
+        <v>0.9943990725193013</v>
+      </c>
+      <c r="I20">
+        <v>1.04239797746004</v>
+      </c>
+      <c r="J20">
+        <v>1.01402718631901</v>
+      </c>
+      <c r="K20">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="L20">
+        <v>0.9850122672681534</v>
+      </c>
+      <c r="M20">
+        <v>0.9716454153872275</v>
+      </c>
+      <c r="N20">
+        <v>0.9716454153872275</v>
+      </c>
+      <c r="O20">
+        <v>0.9792299677645854</v>
+      </c>
+      <c r="P20">
+        <v>0.9852216817933414</v>
+      </c>
+      <c r="Q20">
+        <v>0.9852216817933414</v>
+      </c>
+      <c r="R20">
+        <v>0.9920098149963983</v>
+      </c>
+      <c r="S20">
+        <v>0.9920098149963983</v>
+      </c>
+      <c r="T20">
+        <v>1.001081546946396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.055005758586001</v>
+      </c>
+      <c r="D21">
+        <v>0.970521052556197</v>
+      </c>
+      <c r="E21">
+        <v>0.970521052556197</v>
+      </c>
+      <c r="F21">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="G21">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="H21">
+        <v>1.028389557825304</v>
+      </c>
+      <c r="I21">
+        <v>1.032734754505197</v>
+      </c>
+      <c r="J21">
+        <v>1.007091286890716</v>
+      </c>
+      <c r="K21">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="L21">
+        <v>1.055005758586001</v>
+      </c>
+      <c r="M21">
+        <v>1.012763405571099</v>
+      </c>
+      <c r="N21">
+        <v>1.012763405571099</v>
+      </c>
+      <c r="O21">
+        <v>1.017972122989167</v>
+      </c>
+      <c r="P21">
+        <v>1.03327501340434</v>
+      </c>
+      <c r="Q21">
+        <v>1.03327501340434</v>
+      </c>
+      <c r="R21">
+        <v>1.043530817320961</v>
+      </c>
+      <c r="S21">
+        <v>1.043530817320961</v>
+      </c>
+      <c r="T21">
+        <v>1.02800677323904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.7592886785693652</v>
+      </c>
+      <c r="D22">
+        <v>0.7912020731091428</v>
+      </c>
+      <c r="E22">
+        <v>0.7912020731091428</v>
+      </c>
+      <c r="F22">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="G22">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="H22">
+        <v>0.5788164687499824</v>
+      </c>
+      <c r="I22">
+        <v>0.3508542570844418</v>
+      </c>
+      <c r="J22">
+        <v>0.7799497475227621</v>
+      </c>
+      <c r="K22">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="L22">
+        <v>0.7592886785693652</v>
+      </c>
+      <c r="M22">
+        <v>0.775245375839254</v>
+      </c>
+      <c r="N22">
+        <v>0.775245375839254</v>
+      </c>
+      <c r="O22">
+        <v>0.7097690734761635</v>
+      </c>
+      <c r="P22">
+        <v>1.00438730765096</v>
+      </c>
+      <c r="Q22">
+        <v>1.00438730765096</v>
+      </c>
+      <c r="R22">
+        <v>1.118958273556812</v>
+      </c>
+      <c r="S22">
+        <v>1.118958273556812</v>
+      </c>
+      <c r="T22">
+        <v>0.7871303993850108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.3777137258120523</v>
+      </c>
+      <c r="D23">
+        <v>2.323447180031364</v>
+      </c>
+      <c r="E23">
+        <v>2.323447180031364</v>
+      </c>
+      <c r="F23">
         <v>0.53658787879485</v>
       </c>
-      <c r="D19">
-        <v>2.323447180031363</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.53658787879485</v>
+      </c>
+      <c r="H23">
+        <v>0.6126119987307714</v>
+      </c>
+      <c r="I23">
+        <v>1.415311463722935</v>
+      </c>
+      <c r="J23">
+        <v>0.5480455578389196</v>
+      </c>
+      <c r="K23">
+        <v>0.53658787879485</v>
+      </c>
+      <c r="L23">
         <v>0.3777137258120523</v>
       </c>
-      <c r="F19">
-        <v>0.53658787879485</v>
-      </c>
-      <c r="G19">
-        <v>1.415311463722935</v>
-      </c>
-      <c r="H19">
-        <v>0.6126119987307714</v>
-      </c>
-      <c r="I19">
-        <v>0.5480455578389196</v>
-      </c>
-      <c r="J19">
-        <v>2.323447180031363</v>
-      </c>
-      <c r="K19">
-        <v>0.53658787879485</v>
-      </c>
-      <c r="L19">
-        <v>0.3777137258120523</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.350580452921708</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.350580452921708</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.104590968191396</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.079249594879422</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.079249594879422</v>
       </c>
-      <c r="R19">
-        <v>0.943584165858279</v>
-      </c>
-      <c r="S19">
-        <v>0.943584165858279</v>
-      </c>
-      <c r="T19">
+      <c r="R23">
+        <v>0.9435841658582791</v>
+      </c>
+      <c r="S23">
+        <v>0.9435841658582791</v>
+      </c>
+      <c r="T23">
         <v>0.968952967488482</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.132129380143077</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="D3">
-        <v>0.8995120634713665</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="E3">
-        <v>0.8995120634713665</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="F3">
-        <v>1.162558771989542</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="G3">
-        <v>1.162558771989542</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="H3">
-        <v>1.093169307656317</v>
+        <v>1.00139079472356</v>
       </c>
       <c r="I3">
-        <v>1.0191059333043</v>
+        <v>0.8219686137087898</v>
       </c>
       <c r="J3">
-        <v>0.9479703448285336</v>
+        <v>0.8974883666049408</v>
       </c>
       <c r="K3">
-        <v>1.162558771989542</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="L3">
-        <v>1.132129380143077</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="M3">
-        <v>1.015820721807221</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="N3">
-        <v>1.015820721807221</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="O3">
-        <v>1.04160358375692</v>
+        <v>0.978198602885552</v>
       </c>
       <c r="P3">
-        <v>1.064733405201328</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="Q3">
-        <v>1.064733405201328</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="R3">
-        <v>1.089189746898382</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="S3">
-        <v>1.089189746898382</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="T3">
-        <v>1.042407633565523</v>
+        <v>0.9465445225242571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.150249053117235</v>
+        <v>1.0521522004793</v>
       </c>
       <c r="D4">
-        <v>0.7815059395026643</v>
+        <v>0.8998776565458959</v>
       </c>
       <c r="E4">
-        <v>0.7815059395026643</v>
+        <v>0.8998776565458959</v>
       </c>
       <c r="F4">
-        <v>1.469071175509284</v>
+        <v>0.9506810712739081</v>
       </c>
       <c r="G4">
-        <v>1.469071175509284</v>
+        <v>0.9506810712739081</v>
       </c>
       <c r="H4">
-        <v>1.452668710387369</v>
+        <v>0.9899437267444031</v>
       </c>
       <c r="I4">
-        <v>1.020168594590092</v>
+        <v>0.8504984044141766</v>
       </c>
       <c r="J4">
-        <v>0.9713222947841953</v>
+        <v>0.9249421677024652</v>
       </c>
       <c r="K4">
-        <v>1.469071175509284</v>
+        <v>0.9506810712739081</v>
       </c>
       <c r="L4">
-        <v>1.150249053117235</v>
+        <v>1.0521522004793</v>
       </c>
       <c r="M4">
-        <v>0.9658774963099497</v>
+        <v>0.9760149285125977</v>
       </c>
       <c r="N4">
-        <v>0.9658774963099497</v>
+        <v>0.9760149285125977</v>
       </c>
       <c r="O4">
-        <v>1.128141234335756</v>
+        <v>0.980657861256533</v>
       </c>
       <c r="P4">
-        <v>1.133608722709728</v>
+        <v>0.9675703094330346</v>
       </c>
       <c r="Q4">
-        <v>1.133608722709728</v>
+        <v>0.9675703094330345</v>
       </c>
       <c r="R4">
-        <v>1.217474335909617</v>
+        <v>0.9633479998932528</v>
       </c>
       <c r="S4">
-        <v>1.217474335909617</v>
+        <v>0.9633479998932528</v>
       </c>
       <c r="T4">
-        <v>1.14083096131514</v>
+        <v>0.9446825378600247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.20237374955589</v>
+        <v>1.264763347121532</v>
       </c>
       <c r="D5">
-        <v>1.696445512038119</v>
+        <v>0.5365507965308298</v>
       </c>
       <c r="E5">
-        <v>1.696445512038119</v>
+        <v>0.5365507965308298</v>
       </c>
       <c r="F5">
-        <v>1.966275987331351</v>
+        <v>1.570931085674177</v>
       </c>
       <c r="G5">
-        <v>1.966275987331351</v>
+        <v>1.570931085674177</v>
       </c>
       <c r="H5">
-        <v>1.604185594425074</v>
+        <v>1.224526534502694</v>
       </c>
       <c r="I5">
-        <v>1.576715572770089</v>
+        <v>1.376530705502803</v>
       </c>
       <c r="J5">
-        <v>0.4508786257899174</v>
+        <v>0.9351044077806258</v>
       </c>
       <c r="K5">
-        <v>1.966275987331351</v>
+        <v>1.570931085674177</v>
       </c>
       <c r="L5">
-        <v>1.20237374955589</v>
+        <v>1.264763347121532</v>
       </c>
       <c r="M5">
-        <v>1.449409630797004</v>
+        <v>0.9006570718261808</v>
       </c>
       <c r="N5">
-        <v>1.449409630797004</v>
+        <v>0.9006570718261808</v>
       </c>
       <c r="O5">
-        <v>1.501001618673028</v>
+        <v>1.008613559385019</v>
       </c>
       <c r="P5">
-        <v>1.621698416308454</v>
+        <v>1.124081743108846</v>
       </c>
       <c r="Q5">
-        <v>1.621698416308453</v>
+        <v>1.124081743108846</v>
       </c>
       <c r="R5">
-        <v>1.707842809064178</v>
+        <v>1.235794078750179</v>
       </c>
       <c r="S5">
-        <v>1.707842809064178</v>
+        <v>1.235794078750179</v>
       </c>
       <c r="T5">
-        <v>1.416145840318407</v>
+        <v>1.151401146185444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.156387364023578</v>
+        <v>2.025108910982953</v>
       </c>
       <c r="D6">
-        <v>0.01090854583517811</v>
+        <v>0.6917935668437497</v>
       </c>
       <c r="E6">
-        <v>0.01090854583517811</v>
+        <v>0.6917935668437497</v>
       </c>
       <c r="F6">
-        <v>5.010203963243177</v>
+        <v>3.152295086638749</v>
       </c>
       <c r="G6">
-        <v>5.010203963243177</v>
+        <v>3.152295086638749</v>
       </c>
       <c r="H6">
-        <v>2.342314963145484</v>
+        <v>1.0145220409725</v>
       </c>
       <c r="I6">
-        <v>0.3987476193353456</v>
+        <v>2.327782562330569</v>
       </c>
       <c r="J6">
-        <v>0.1979291070249144</v>
+        <v>0.7384074671256479</v>
       </c>
       <c r="K6">
-        <v>5.010203963243177</v>
+        <v>3.152295086638749</v>
       </c>
       <c r="L6">
-        <v>4.156387364023578</v>
+        <v>2.025108910982953</v>
       </c>
       <c r="M6">
-        <v>2.083647954929378</v>
+        <v>1.358451238913352</v>
       </c>
       <c r="N6">
-        <v>2.083647954929378</v>
+        <v>1.358451238913352</v>
       </c>
       <c r="O6">
-        <v>2.169870291001413</v>
+        <v>1.243808172933068</v>
       </c>
       <c r="P6">
-        <v>3.059166624367311</v>
+        <v>1.956399188155151</v>
       </c>
       <c r="Q6">
-        <v>3.059166624367311</v>
+        <v>1.956399188155151</v>
       </c>
       <c r="R6">
-        <v>3.546925959086277</v>
+        <v>2.25537316277605</v>
       </c>
       <c r="S6">
-        <v>3.546925959086277</v>
+        <v>2.25537316277605</v>
       </c>
       <c r="T6">
-        <v>2.019415260434613</v>
+        <v>1.658318272482362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003885234693759</v>
+        <v>0.2454993048914005</v>
       </c>
       <c r="D7">
-        <v>0.9529256960707637</v>
+        <v>-0.001912977759223315</v>
       </c>
       <c r="E7">
-        <v>0.9529256960707637</v>
+        <v>-0.001912977759223315</v>
       </c>
       <c r="F7">
-        <v>1.060274422946101</v>
+        <v>4.297157434359947</v>
       </c>
       <c r="G7">
-        <v>1.060274422946101</v>
+        <v>4.297157434359947</v>
       </c>
       <c r="H7">
-        <v>1.009095792120288</v>
+        <v>0.003095730988021049</v>
       </c>
       <c r="I7">
-        <v>1.026649561624163</v>
+        <v>-0.009907780992735664</v>
       </c>
       <c r="J7">
-        <v>1.013605388495306</v>
+        <v>0.6000013870864802</v>
       </c>
       <c r="K7">
-        <v>1.060274422946101</v>
+        <v>4.297157434359947</v>
       </c>
       <c r="L7">
-        <v>1.003885234693759</v>
+        <v>0.2454993048914005</v>
       </c>
       <c r="M7">
-        <v>0.9784054653822611</v>
+        <v>0.1217931635660886</v>
       </c>
       <c r="N7">
-        <v>0.9784054653822611</v>
+        <v>0.1217931635660886</v>
       </c>
       <c r="O7">
-        <v>0.9886355742949368</v>
+        <v>0.08222735270673275</v>
       </c>
       <c r="P7">
-        <v>1.005695117903541</v>
+        <v>1.513581253830708</v>
       </c>
       <c r="Q7">
-        <v>1.005695117903541</v>
+        <v>1.513581253830708</v>
       </c>
       <c r="R7">
-        <v>1.019339944164181</v>
+        <v>2.209475298963017</v>
       </c>
       <c r="S7">
-        <v>1.019339944164181</v>
+        <v>2.209475298963017</v>
       </c>
       <c r="T7">
-        <v>1.011072682658397</v>
+        <v>0.8556555164289815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9913370598085041</v>
+        <v>0.2442284390997962</v>
       </c>
       <c r="D8">
-        <v>0.9450547350057091</v>
+        <v>-0.001917207385606613</v>
       </c>
       <c r="E8">
-        <v>0.9450547350057091</v>
+        <v>-0.001917207385606613</v>
       </c>
       <c r="F8">
-        <v>1.108465159140367</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="G8">
-        <v>1.108465159140367</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="H8">
-        <v>1.020635277025776</v>
+        <v>0.003148834737184904</v>
       </c>
       <c r="I8">
-        <v>1.032368385507709</v>
+        <v>-0.009860018136912351</v>
       </c>
       <c r="J8">
-        <v>1.014438977574353</v>
+        <v>0.597081557134147</v>
       </c>
       <c r="K8">
-        <v>1.108465159140367</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="L8">
-        <v>0.9913370598085041</v>
+        <v>0.2442284390997962</v>
       </c>
       <c r="M8">
-        <v>0.9681958974071065</v>
+        <v>0.1211556158570948</v>
       </c>
       <c r="N8">
-        <v>0.9681958974071065</v>
+        <v>0.1211556158570948</v>
       </c>
       <c r="O8">
-        <v>0.9856756906133297</v>
+        <v>0.08182002215045818</v>
       </c>
       <c r="P8">
-        <v>1.01495231798486</v>
+        <v>1.580122771110253</v>
       </c>
       <c r="Q8">
-        <v>1.01495231798486</v>
+        <v>1.580122771110253</v>
       </c>
       <c r="R8">
-        <v>1.038330528273737</v>
+        <v>2.309606348736833</v>
       </c>
       <c r="S8">
-        <v>1.038330528273737</v>
+        <v>2.309606348736833</v>
       </c>
       <c r="T8">
-        <v>1.018716599010403</v>
+        <v>0.8884564478441966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.074318518456329</v>
+        <v>0.2435959245310029</v>
       </c>
       <c r="D9">
-        <v>0.9200171289721004</v>
+        <v>-0.001893414255133354</v>
       </c>
       <c r="E9">
-        <v>0.9200171289721004</v>
+        <v>-0.001893414255133354</v>
       </c>
       <c r="F9">
-        <v>1.344955730875354</v>
+        <v>4.514733527045604</v>
       </c>
       <c r="G9">
-        <v>1.344955730875354</v>
+        <v>4.514733527045604</v>
       </c>
       <c r="H9">
-        <v>1.014384596804231</v>
+        <v>0.003260131934160299</v>
       </c>
       <c r="I9">
-        <v>1.028158390196445</v>
+        <v>-0.009826828022777975</v>
       </c>
       <c r="J9">
-        <v>0.9942567931185642</v>
+        <v>0.5958590105475775</v>
       </c>
       <c r="K9">
-        <v>1.344955730875354</v>
+        <v>4.514733527045604</v>
       </c>
       <c r="L9">
-        <v>1.074318518456329</v>
+        <v>0.2435959245310029</v>
       </c>
       <c r="M9">
-        <v>0.9971678237142148</v>
+        <v>0.1208512551379348</v>
       </c>
       <c r="N9">
-        <v>0.9971678237142148</v>
+        <v>0.1208512551379348</v>
       </c>
       <c r="O9">
-        <v>1.002906748077554</v>
+        <v>0.08165421407000995</v>
       </c>
       <c r="P9">
-        <v>1.113097126101261</v>
+        <v>1.585478679107158</v>
       </c>
       <c r="Q9">
-        <v>1.113097126101261</v>
+        <v>1.585478679107158</v>
       </c>
       <c r="R9">
-        <v>1.171061777294784</v>
+        <v>2.317792391091769</v>
       </c>
       <c r="S9">
-        <v>1.171061777294784</v>
+        <v>2.317792391091769</v>
       </c>
       <c r="T9">
-        <v>1.062681859737171</v>
+        <v>0.890954725296739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9464413210042044</v>
+        <v>0.2404298876163391</v>
       </c>
       <c r="D10">
-        <v>0.9641873814027394</v>
+        <v>-0.001799722226605828</v>
       </c>
       <c r="E10">
-        <v>0.9641873814027394</v>
+        <v>-0.001799722226605828</v>
       </c>
       <c r="F10">
-        <v>1.605050621820923</v>
+        <v>5.552471515689906</v>
       </c>
       <c r="G10">
-        <v>1.605050621820923</v>
+        <v>5.552471515689906</v>
       </c>
       <c r="H10">
-        <v>1.045836125114503</v>
+        <v>0.003447885166682635</v>
       </c>
       <c r="I10">
-        <v>1.00179751507936</v>
+        <v>-0.009576953375485229</v>
       </c>
       <c r="J10">
-        <v>1.069886664788025</v>
+        <v>0.5884375644140342</v>
       </c>
       <c r="K10">
-        <v>1.605050621820923</v>
+        <v>5.552471515689906</v>
       </c>
       <c r="L10">
-        <v>0.9464413210042044</v>
+        <v>0.2404298876163391</v>
       </c>
       <c r="M10">
-        <v>0.9553143512034719</v>
+        <v>0.1193150826948666</v>
       </c>
       <c r="N10">
-        <v>0.9553143512034719</v>
+        <v>0.1193150826948666</v>
       </c>
       <c r="O10">
-        <v>0.9854882758404825</v>
+        <v>0.08069268351880529</v>
       </c>
       <c r="P10">
-        <v>1.171893108075956</v>
+        <v>1.930367227026547</v>
       </c>
       <c r="Q10">
-        <v>1.171893108075956</v>
+        <v>1.930367227026547</v>
       </c>
       <c r="R10">
-        <v>1.280182486512198</v>
+        <v>2.835893299192387</v>
       </c>
       <c r="S10">
-        <v>1.280182486512198</v>
+        <v>2.835893299192387</v>
       </c>
       <c r="T10">
-        <v>1.105533271534959</v>
+        <v>1.062235029547479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.993091641440385</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="D11">
-        <v>0.3348744261900233</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="E11">
-        <v>0.3348744261900233</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="F11">
-        <v>1.831006857798118</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="G11">
-        <v>1.831006857798118</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="H11">
-        <v>1.253579745862917</v>
+        <v>1.12768230227852</v>
       </c>
       <c r="I11">
-        <v>1.5374990944531</v>
+        <v>0.981162258209054</v>
       </c>
       <c r="J11">
-        <v>1.08668507021745</v>
+        <v>0.9720338510844156</v>
       </c>
       <c r="K11">
-        <v>1.831006857798118</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="L11">
-        <v>0.993091641440385</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="M11">
-        <v>0.6639830338152042</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="N11">
-        <v>0.6639830338152042</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="O11">
-        <v>0.8605152711644419</v>
+        <v>1.041201675595381</v>
       </c>
       <c r="P11">
-        <v>1.052990975142842</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="Q11">
-        <v>1.052990975142842</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="R11">
-        <v>1.247494945806661</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="S11">
-        <v>1.247494945806661</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="T11">
-        <v>1.172789472660332</v>
+        <v>1.036004664026939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.455860173810053</v>
+        <v>1.052431977115046</v>
       </c>
       <c r="D12">
-        <v>0.000801162831511158</v>
+        <v>0.9280420659708812</v>
       </c>
       <c r="E12">
-        <v>0.000801162831511158</v>
+        <v>0.9280420659708812</v>
       </c>
       <c r="F12">
-        <v>0.9733623593361579</v>
+        <v>1.099184562863333</v>
       </c>
       <c r="G12">
-        <v>0.9733623593361579</v>
+        <v>1.099184562863333</v>
       </c>
       <c r="H12">
-        <v>1.049289727798779</v>
+        <v>1.056974999480991</v>
       </c>
       <c r="I12">
-        <v>0.0007674696421989481</v>
+        <v>0.9992421577826193</v>
       </c>
       <c r="J12">
-        <v>0.6476216206216451</v>
+        <v>0.9938115052928614</v>
       </c>
       <c r="K12">
-        <v>0.9733623593361579</v>
+        <v>1.099184562863333</v>
       </c>
       <c r="L12">
-        <v>2.455860173810053</v>
+        <v>1.052431977115046</v>
       </c>
       <c r="M12">
-        <v>1.228330668320782</v>
+        <v>0.9902370215429638</v>
       </c>
       <c r="N12">
-        <v>1.228330668320782</v>
+        <v>0.9902370215429638</v>
       </c>
       <c r="O12">
-        <v>1.168650354813448</v>
+        <v>1.012483014188973</v>
       </c>
       <c r="P12">
-        <v>1.143341231992574</v>
+        <v>1.026552868649754</v>
       </c>
       <c r="Q12">
-        <v>1.143341231992574</v>
+        <v>1.026552868649754</v>
       </c>
       <c r="R12">
-        <v>1.10084651382847</v>
+        <v>1.044710792203148</v>
       </c>
       <c r="S12">
-        <v>1.10084651382847</v>
+        <v>1.044710792203148</v>
       </c>
       <c r="T12">
-        <v>0.8546170856733908</v>
+        <v>1.021614544750956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4508514240154859</v>
+        <v>1.104871709828894</v>
       </c>
       <c r="D13">
-        <v>2.937808520067123</v>
+        <v>0.6702497622772455</v>
       </c>
       <c r="E13">
-        <v>2.937808520067123</v>
+        <v>0.6702497622772455</v>
       </c>
       <c r="F13">
-        <v>0.1851860236774952</v>
+        <v>1.790796326546548</v>
       </c>
       <c r="G13">
-        <v>0.1851860236774952</v>
+        <v>1.790796326546548</v>
       </c>
       <c r="H13">
-        <v>0.167598464641344</v>
+        <v>1.452180417079225</v>
       </c>
       <c r="I13">
-        <v>2.724418081173896</v>
+        <v>1.191263849766364</v>
       </c>
       <c r="J13">
-        <v>0.7517290887995984</v>
+        <v>1.24445723893435</v>
       </c>
       <c r="K13">
-        <v>0.1851860236774952</v>
+        <v>1.790796326546548</v>
       </c>
       <c r="L13">
-        <v>0.4508514240154859</v>
+        <v>1.104871709828894</v>
       </c>
       <c r="M13">
-        <v>1.694329972041305</v>
+        <v>0.88756073605307</v>
       </c>
       <c r="N13">
-        <v>1.694329972041305</v>
+        <v>0.88756073605307</v>
       </c>
       <c r="O13">
-        <v>1.185419469574651</v>
+        <v>1.075767296395121</v>
       </c>
       <c r="P13">
-        <v>1.191281989253368</v>
+        <v>1.188639266217563</v>
       </c>
       <c r="Q13">
-        <v>1.191281989253368</v>
+        <v>1.188639266217563</v>
       </c>
       <c r="R13">
-        <v>0.9397579978594</v>
+        <v>1.339178531299809</v>
       </c>
       <c r="S13">
-        <v>0.9397579978594</v>
+        <v>1.339178531299809</v>
       </c>
       <c r="T13">
-        <v>1.202931933729157</v>
+        <v>1.242303217405438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4295785948804509</v>
+        <v>2.935730237936058</v>
       </c>
       <c r="D14">
-        <v>5.23147111789241</v>
+        <v>1.081408001143201</v>
       </c>
       <c r="E14">
-        <v>5.23147111789241</v>
+        <v>1.081408001143201</v>
       </c>
       <c r="F14">
-        <v>0.001491377477314472</v>
+        <v>2.421263558917856</v>
       </c>
       <c r="G14">
-        <v>0.001491377477314472</v>
+        <v>2.421263558917856</v>
       </c>
       <c r="H14">
-        <v>3.419812016970432</v>
+        <v>1.118324819785633</v>
       </c>
       <c r="I14">
-        <v>0.3768814454090609</v>
+        <v>2.614834745648721</v>
       </c>
       <c r="J14">
-        <v>0.1532284538066766</v>
+        <v>0.3550416133007921</v>
       </c>
       <c r="K14">
-        <v>0.001491377477314472</v>
+        <v>2.421263558917856</v>
       </c>
       <c r="L14">
-        <v>0.4295785948804509</v>
+        <v>2.935730237936058</v>
       </c>
       <c r="M14">
-        <v>2.830524856386431</v>
+        <v>2.008569119539629</v>
       </c>
       <c r="N14">
-        <v>2.830524856386431</v>
+        <v>2.008569119539629</v>
       </c>
       <c r="O14">
-        <v>3.026953909914431</v>
+        <v>1.711821019621631</v>
       </c>
       <c r="P14">
-        <v>1.887513696750059</v>
+        <v>2.146133932665705</v>
       </c>
       <c r="Q14">
-        <v>1.887513696750059</v>
+        <v>2.146133932665705</v>
       </c>
       <c r="R14">
-        <v>1.416008116931873</v>
+        <v>2.214916339228743</v>
       </c>
       <c r="S14">
-        <v>1.416008116931873</v>
+        <v>2.214916339228743</v>
       </c>
       <c r="T14">
-        <v>1.602077167739391</v>
+        <v>1.754433829455377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.826986814728061</v>
+        <v>1.132129380143077</v>
       </c>
       <c r="D15">
-        <v>-6.389891926698433E-05</v>
+        <v>0.8995120634713665</v>
       </c>
       <c r="E15">
-        <v>-6.389891926698433E-05</v>
+        <v>0.8995120634713665</v>
       </c>
       <c r="F15">
-        <v>0.4381435261136661</v>
+        <v>1.162558771989542</v>
       </c>
       <c r="G15">
-        <v>0.4381435261136661</v>
+        <v>1.162558771989542</v>
       </c>
       <c r="H15">
-        <v>1.67992267616932</v>
+        <v>1.093169307656317</v>
       </c>
       <c r="I15">
-        <v>0.001705017452521932</v>
+        <v>1.0191059333043</v>
       </c>
       <c r="J15">
-        <v>2.030803856240341</v>
+        <v>0.9479703448285336</v>
       </c>
       <c r="K15">
-        <v>0.4381435261136661</v>
+        <v>1.162558771989542</v>
       </c>
       <c r="L15">
-        <v>1.826986814728061</v>
+        <v>1.132129380143077</v>
       </c>
       <c r="M15">
-        <v>0.9134614579043973</v>
+        <v>1.015820721807221</v>
       </c>
       <c r="N15">
-        <v>0.9134614579043973</v>
+        <v>1.015820721807221</v>
       </c>
       <c r="O15">
-        <v>1.168948530659372</v>
+        <v>1.04160358375692</v>
       </c>
       <c r="P15">
-        <v>0.7550221473074868</v>
+        <v>1.064733405201328</v>
       </c>
       <c r="Q15">
-        <v>0.7550221473074868</v>
+        <v>1.064733405201328</v>
       </c>
       <c r="R15">
-        <v>0.6758024920090316</v>
+        <v>1.089189746898382</v>
       </c>
       <c r="S15">
-        <v>0.6758024920090316</v>
+        <v>1.089189746898382</v>
       </c>
       <c r="T15">
-        <v>0.9962496652974405</v>
+        <v>1.042407633565523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.860038967180048</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="D16">
-        <v>0.2356014073041479</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="E16">
-        <v>0.2356014073041479</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="F16">
-        <v>3.078204192836764</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="G16">
-        <v>3.078204192836764</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="H16">
-        <v>2.801810137181341</v>
+        <v>1.452668710387369</v>
       </c>
       <c r="I16">
-        <v>0.2197138088952312</v>
+        <v>1.020168594590092</v>
       </c>
       <c r="J16">
-        <v>0.2375201373792806</v>
+        <v>0.9713222947841953</v>
       </c>
       <c r="K16">
-        <v>3.078204192836764</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="L16">
-        <v>2.860038967180048</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="M16">
-        <v>1.547820187242098</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="N16">
-        <v>1.547820187242098</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="O16">
-        <v>1.965816837221846</v>
+        <v>1.128141234335756</v>
       </c>
       <c r="P16">
-        <v>2.057948189106987</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="Q16">
-        <v>2.057948189106987</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="R16">
-        <v>2.313012190039431</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="S16">
-        <v>2.313012190039431</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="T16">
-        <v>1.572148108462802</v>
+        <v>1.14083096131514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.254674683721381</v>
+        <v>1.20237374955589</v>
       </c>
       <c r="D17">
-        <v>0.4652351043657622</v>
+        <v>1.696445512038119</v>
       </c>
       <c r="E17">
-        <v>0.4652351043657622</v>
+        <v>1.696445512038119</v>
       </c>
       <c r="F17">
-        <v>2.390946748993873</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="G17">
-        <v>2.390946748993873</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="H17">
-        <v>2.195180936140081</v>
+        <v>1.604185594425074</v>
       </c>
       <c r="I17">
-        <v>0.4377720481633577</v>
+        <v>1.576715572770089</v>
       </c>
       <c r="J17">
-        <v>0.4739007563994012</v>
+        <v>0.4508786257899174</v>
       </c>
       <c r="K17">
-        <v>2.390946748993873</v>
+        <v>1.966275987331351</v>
       </c>
       <c r="L17">
-        <v>2.254674683721381</v>
+        <v>1.20237374955589</v>
       </c>
       <c r="M17">
-        <v>1.359954894043572</v>
+        <v>1.449409630797004</v>
       </c>
       <c r="N17">
-        <v>1.359954894043572</v>
+        <v>1.449409630797004</v>
       </c>
       <c r="O17">
-        <v>1.638363574742408</v>
+        <v>1.501001618673028</v>
       </c>
       <c r="P17">
-        <v>1.703618845693672</v>
+        <v>1.621698416308454</v>
       </c>
       <c r="Q17">
-        <v>1.703618845693672</v>
+        <v>1.621698416308453</v>
       </c>
       <c r="R17">
-        <v>1.875450821518722</v>
+        <v>1.707842809064178</v>
       </c>
       <c r="S17">
-        <v>1.875450821518722</v>
+        <v>1.707842809064178</v>
       </c>
       <c r="T17">
-        <v>1.369618379630642</v>
+        <v>1.416145840318407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9199786805971599</v>
+        <v>4.156387364023578</v>
       </c>
       <c r="D18">
-        <v>1.001795574414096</v>
+        <v>0.01090854583517811</v>
       </c>
       <c r="E18">
-        <v>1.001795574414096</v>
+        <v>0.01090854583517811</v>
       </c>
       <c r="F18">
-        <v>1.166565024506799</v>
+        <v>5.010203963243177</v>
       </c>
       <c r="G18">
-        <v>1.166565024506799</v>
+        <v>5.010203963243177</v>
       </c>
       <c r="H18">
-        <v>0.9593171802728706</v>
+        <v>2.342314963145484</v>
       </c>
       <c r="I18">
-        <v>0.9314239213411278</v>
+        <v>0.3987476193353456</v>
       </c>
       <c r="J18">
-        <v>0.9316327517967588</v>
+        <v>0.1979291070249144</v>
       </c>
       <c r="K18">
-        <v>1.166565024506799</v>
+        <v>5.010203963243177</v>
       </c>
       <c r="L18">
-        <v>0.9199786805971599</v>
+        <v>4.156387364023578</v>
       </c>
       <c r="M18">
-        <v>0.960887127505628</v>
+        <v>2.083647954929378</v>
       </c>
       <c r="N18">
-        <v>0.960887127505628</v>
+        <v>2.083647954929378</v>
       </c>
       <c r="O18">
-        <v>0.9603638117613755</v>
+        <v>2.169870291001413</v>
       </c>
       <c r="P18">
-        <v>1.029446426506018</v>
+        <v>3.059166624367311</v>
       </c>
       <c r="Q18">
-        <v>1.029446426506018</v>
+        <v>3.059166624367311</v>
       </c>
       <c r="R18">
-        <v>1.063726076006213</v>
+        <v>3.546925959086277</v>
       </c>
       <c r="S18">
-        <v>1.063726076006213</v>
+        <v>3.546925959086277</v>
       </c>
       <c r="T18">
-        <v>0.9851188554881353</v>
+        <v>2.019415260434613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.171527883761892</v>
+        <v>1.003885234693759</v>
       </c>
       <c r="D19">
-        <v>0.9549202107480491</v>
+        <v>0.9529256960707637</v>
       </c>
       <c r="E19">
-        <v>0.9549202107480491</v>
+        <v>0.9529256960707637</v>
       </c>
       <c r="F19">
-        <v>0.8309472937186446</v>
+        <v>1.060274422946101</v>
       </c>
       <c r="G19">
-        <v>0.8309472937186446</v>
+        <v>1.060274422946101</v>
       </c>
       <c r="H19">
-        <v>0.7062870760892345</v>
+        <v>1.009095792120288</v>
       </c>
       <c r="I19">
-        <v>1.370809860806322</v>
+        <v>1.026649561624163</v>
       </c>
       <c r="J19">
-        <v>1.046941123204391</v>
+        <v>1.013605388495306</v>
       </c>
       <c r="K19">
-        <v>0.8309472937186446</v>
+        <v>1.060274422946101</v>
       </c>
       <c r="L19">
-        <v>1.171527883761892</v>
+        <v>1.003885234693759</v>
       </c>
       <c r="M19">
-        <v>1.06322404725497</v>
+        <v>0.9784054653822611</v>
       </c>
       <c r="N19">
-        <v>1.06322404725497</v>
+        <v>0.9784054653822611</v>
       </c>
       <c r="O19">
-        <v>0.9442450568663917</v>
+        <v>0.9886355742949368</v>
       </c>
       <c r="P19">
-        <v>0.9857984627428618</v>
+        <v>1.005695117903541</v>
       </c>
       <c r="Q19">
-        <v>0.9857984627428618</v>
+        <v>1.005695117903541</v>
       </c>
       <c r="R19">
-        <v>0.9470856704868075</v>
+        <v>1.019339944164181</v>
       </c>
       <c r="S19">
-        <v>0.9470856704868075</v>
+        <v>1.019339944164181</v>
       </c>
       <c r="T19">
-        <v>1.013572241388089</v>
+        <v>1.011072682658397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9850122672681534</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="D20">
-        <v>0.9582785635063016</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="E20">
-        <v>0.9582785635063016</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="F20">
-        <v>1.012374214605569</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="G20">
-        <v>1.012374214605569</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="H20">
-        <v>0.9943990725193013</v>
+        <v>1.020635277025776</v>
       </c>
       <c r="I20">
-        <v>1.04239797746004</v>
+        <v>1.032368385507709</v>
       </c>
       <c r="J20">
-        <v>1.01402718631901</v>
+        <v>1.014438977574353</v>
       </c>
       <c r="K20">
-        <v>1.012374214605569</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="L20">
-        <v>0.9850122672681534</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="M20">
-        <v>0.9716454153872275</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="N20">
-        <v>0.9716454153872275</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="O20">
-        <v>0.9792299677645854</v>
+        <v>0.9856756906133297</v>
       </c>
       <c r="P20">
-        <v>0.9852216817933414</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="Q20">
-        <v>0.9852216817933414</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="R20">
-        <v>0.9920098149963983</v>
+        <v>1.038330528273737</v>
       </c>
       <c r="S20">
-        <v>0.9920098149963983</v>
+        <v>1.038330528273737</v>
       </c>
       <c r="T20">
-        <v>1.001081546946396</v>
+        <v>1.018716599010403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.055005758586001</v>
+        <v>1.074318518456329</v>
       </c>
       <c r="D21">
-        <v>0.970521052556197</v>
+        <v>0.9200171289721004</v>
       </c>
       <c r="E21">
-        <v>0.970521052556197</v>
+        <v>0.9200171289721004</v>
       </c>
       <c r="F21">
-        <v>1.074298229070822</v>
+        <v>1.344955730875354</v>
       </c>
       <c r="G21">
-        <v>1.074298229070822</v>
+        <v>1.344955730875354</v>
       </c>
       <c r="H21">
-        <v>1.028389557825304</v>
+        <v>1.014384596804231</v>
       </c>
       <c r="I21">
-        <v>1.032734754505197</v>
+        <v>1.028158390196445</v>
       </c>
       <c r="J21">
-        <v>1.007091286890716</v>
+        <v>0.9942567931185642</v>
       </c>
       <c r="K21">
-        <v>1.074298229070822</v>
+        <v>1.344955730875354</v>
       </c>
       <c r="L21">
-        <v>1.055005758586001</v>
+        <v>1.074318518456329</v>
       </c>
       <c r="M21">
-        <v>1.012763405571099</v>
+        <v>0.9971678237142148</v>
       </c>
       <c r="N21">
-        <v>1.012763405571099</v>
+        <v>0.9971678237142148</v>
       </c>
       <c r="O21">
-        <v>1.017972122989167</v>
+        <v>1.002906748077554</v>
       </c>
       <c r="P21">
-        <v>1.03327501340434</v>
+        <v>1.113097126101261</v>
       </c>
       <c r="Q21">
-        <v>1.03327501340434</v>
+        <v>1.113097126101261</v>
       </c>
       <c r="R21">
-        <v>1.043530817320961</v>
+        <v>1.171061777294784</v>
       </c>
       <c r="S21">
-        <v>1.043530817320961</v>
+        <v>1.171061777294784</v>
       </c>
       <c r="T21">
-        <v>1.02800677323904</v>
+        <v>1.062681859737171</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7592886785693652</v>
+        <v>0.9464413210042044</v>
       </c>
       <c r="D22">
-        <v>0.7912020731091428</v>
+        <v>0.9641873814027394</v>
       </c>
       <c r="E22">
-        <v>0.7912020731091428</v>
+        <v>0.9641873814027394</v>
       </c>
       <c r="F22">
-        <v>1.462671171274371</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="G22">
-        <v>1.462671171274371</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="H22">
-        <v>0.5788164687499824</v>
+        <v>1.045836125114503</v>
       </c>
       <c r="I22">
-        <v>0.3508542570844418</v>
+        <v>1.00179751507936</v>
       </c>
       <c r="J22">
-        <v>0.7799497475227621</v>
+        <v>1.069886664788025</v>
       </c>
       <c r="K22">
-        <v>1.462671171274371</v>
+        <v>1.605050621820923</v>
       </c>
       <c r="L22">
-        <v>0.7592886785693652</v>
+        <v>0.9464413210042044</v>
       </c>
       <c r="M22">
-        <v>0.775245375839254</v>
+        <v>0.9553143512034719</v>
       </c>
       <c r="N22">
-        <v>0.775245375839254</v>
+        <v>0.9553143512034719</v>
       </c>
       <c r="O22">
-        <v>0.7097690734761635</v>
+        <v>0.9854882758404825</v>
       </c>
       <c r="P22">
-        <v>1.00438730765096</v>
+        <v>1.171893108075956</v>
       </c>
       <c r="Q22">
-        <v>1.00438730765096</v>
+        <v>1.171893108075956</v>
       </c>
       <c r="R22">
-        <v>1.118958273556812</v>
+        <v>1.280182486512198</v>
       </c>
       <c r="S22">
-        <v>1.118958273556812</v>
+        <v>1.280182486512198</v>
       </c>
       <c r="T22">
-        <v>0.7871303993850108</v>
+        <v>1.105533271534959</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.993091641440385</v>
+      </c>
+      <c r="D23">
+        <v>0.3348744261900233</v>
+      </c>
+      <c r="E23">
+        <v>0.3348744261900233</v>
+      </c>
+      <c r="F23">
+        <v>1.831006857798118</v>
+      </c>
+      <c r="G23">
+        <v>1.831006857798118</v>
+      </c>
+      <c r="H23">
+        <v>1.253579745862917</v>
+      </c>
+      <c r="I23">
+        <v>1.5374990944531</v>
+      </c>
+      <c r="J23">
+        <v>1.08668507021745</v>
+      </c>
+      <c r="K23">
+        <v>1.831006857798118</v>
+      </c>
+      <c r="L23">
+        <v>0.993091641440385</v>
+      </c>
+      <c r="M23">
+        <v>0.6639830338152042</v>
+      </c>
+      <c r="N23">
+        <v>0.6639830338152042</v>
+      </c>
+      <c r="O23">
+        <v>0.8605152711644419</v>
+      </c>
+      <c r="P23">
+        <v>1.052990975142842</v>
+      </c>
+      <c r="Q23">
+        <v>1.052990975142842</v>
+      </c>
+      <c r="R23">
+        <v>1.247494945806661</v>
+      </c>
+      <c r="S23">
+        <v>1.247494945806661</v>
+      </c>
+      <c r="T23">
+        <v>1.172789472660332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.455860173810053</v>
+      </c>
+      <c r="D24">
+        <v>0.000801162831511158</v>
+      </c>
+      <c r="E24">
+        <v>0.000801162831511158</v>
+      </c>
+      <c r="F24">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="G24">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="H24">
+        <v>1.049289727798779</v>
+      </c>
+      <c r="I24">
+        <v>0.0007674696421989481</v>
+      </c>
+      <c r="J24">
+        <v>0.6476216206216451</v>
+      </c>
+      <c r="K24">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="L24">
+        <v>2.455860173810053</v>
+      </c>
+      <c r="M24">
+        <v>1.228330668320782</v>
+      </c>
+      <c r="N24">
+        <v>1.228330668320782</v>
+      </c>
+      <c r="O24">
+        <v>1.168650354813448</v>
+      </c>
+      <c r="P24">
+        <v>1.143341231992574</v>
+      </c>
+      <c r="Q24">
+        <v>1.143341231992574</v>
+      </c>
+      <c r="R24">
+        <v>1.10084651382847</v>
+      </c>
+      <c r="S24">
+        <v>1.10084651382847</v>
+      </c>
+      <c r="T24">
+        <v>0.8546170856733908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4508514240154859</v>
+      </c>
+      <c r="D25">
+        <v>2.937808520067123</v>
+      </c>
+      <c r="E25">
+        <v>2.937808520067123</v>
+      </c>
+      <c r="F25">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="G25">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="H25">
+        <v>0.167598464641344</v>
+      </c>
+      <c r="I25">
+        <v>2.724418081173896</v>
+      </c>
+      <c r="J25">
+        <v>0.7517290887995984</v>
+      </c>
+      <c r="K25">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="L25">
+        <v>0.4508514240154859</v>
+      </c>
+      <c r="M25">
+        <v>1.694329972041305</v>
+      </c>
+      <c r="N25">
+        <v>1.694329972041305</v>
+      </c>
+      <c r="O25">
+        <v>1.185419469574651</v>
+      </c>
+      <c r="P25">
+        <v>1.191281989253368</v>
+      </c>
+      <c r="Q25">
+        <v>1.191281989253368</v>
+      </c>
+      <c r="R25">
+        <v>0.9397579978594</v>
+      </c>
+      <c r="S25">
+        <v>0.9397579978594</v>
+      </c>
+      <c r="T25">
+        <v>1.202931933729157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4295785948804509</v>
+      </c>
+      <c r="D26">
+        <v>5.23147111789241</v>
+      </c>
+      <c r="E26">
+        <v>5.23147111789241</v>
+      </c>
+      <c r="F26">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="G26">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="H26">
+        <v>3.419812016970432</v>
+      </c>
+      <c r="I26">
+        <v>0.3768814454090609</v>
+      </c>
+      <c r="J26">
+        <v>0.1532284538066766</v>
+      </c>
+      <c r="K26">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="L26">
+        <v>0.4295785948804509</v>
+      </c>
+      <c r="M26">
+        <v>2.830524856386431</v>
+      </c>
+      <c r="N26">
+        <v>2.830524856386431</v>
+      </c>
+      <c r="O26">
+        <v>3.026953909914431</v>
+      </c>
+      <c r="P26">
+        <v>1.887513696750059</v>
+      </c>
+      <c r="Q26">
+        <v>1.887513696750059</v>
+      </c>
+      <c r="R26">
+        <v>1.416008116931873</v>
+      </c>
+      <c r="S26">
+        <v>1.416008116931873</v>
+      </c>
+      <c r="T26">
+        <v>1.602077167739391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.826986814728061</v>
+      </c>
+      <c r="D27">
+        <v>-6.389891926698433E-05</v>
+      </c>
+      <c r="E27">
+        <v>-6.389891926698433E-05</v>
+      </c>
+      <c r="F27">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="G27">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="H27">
+        <v>1.67992267616932</v>
+      </c>
+      <c r="I27">
+        <v>0.001705017452521932</v>
+      </c>
+      <c r="J27">
+        <v>2.030803856240341</v>
+      </c>
+      <c r="K27">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="L27">
+        <v>1.826986814728061</v>
+      </c>
+      <c r="M27">
+        <v>0.9134614579043973</v>
+      </c>
+      <c r="N27">
+        <v>0.9134614579043973</v>
+      </c>
+      <c r="O27">
+        <v>1.168948530659372</v>
+      </c>
+      <c r="P27">
+        <v>0.7550221473074868</v>
+      </c>
+      <c r="Q27">
+        <v>0.7550221473074868</v>
+      </c>
+      <c r="R27">
+        <v>0.6758024920090316</v>
+      </c>
+      <c r="S27">
+        <v>0.6758024920090316</v>
+      </c>
+      <c r="T27">
+        <v>0.9962496652974405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.860038967180048</v>
+      </c>
+      <c r="D28">
+        <v>0.2356014073041479</v>
+      </c>
+      <c r="E28">
+        <v>0.2356014073041479</v>
+      </c>
+      <c r="F28">
+        <v>3.078204192836764</v>
+      </c>
+      <c r="G28">
+        <v>3.078204192836764</v>
+      </c>
+      <c r="H28">
+        <v>2.801810137181341</v>
+      </c>
+      <c r="I28">
+        <v>0.2197138088952312</v>
+      </c>
+      <c r="J28">
+        <v>0.2375201373792806</v>
+      </c>
+      <c r="K28">
+        <v>3.078204192836764</v>
+      </c>
+      <c r="L28">
+        <v>2.860038967180048</v>
+      </c>
+      <c r="M28">
+        <v>1.547820187242098</v>
+      </c>
+      <c r="N28">
+        <v>1.547820187242098</v>
+      </c>
+      <c r="O28">
+        <v>1.965816837221846</v>
+      </c>
+      <c r="P28">
+        <v>2.057948189106987</v>
+      </c>
+      <c r="Q28">
+        <v>2.057948189106987</v>
+      </c>
+      <c r="R28">
+        <v>2.313012190039431</v>
+      </c>
+      <c r="S28">
+        <v>2.313012190039431</v>
+      </c>
+      <c r="T28">
+        <v>1.572148108462802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.254674683721381</v>
+      </c>
+      <c r="D29">
+        <v>0.4652351043657622</v>
+      </c>
+      <c r="E29">
+        <v>0.4652351043657622</v>
+      </c>
+      <c r="F29">
+        <v>2.390946748993873</v>
+      </c>
+      <c r="G29">
+        <v>2.390946748993873</v>
+      </c>
+      <c r="H29">
+        <v>2.195180936140081</v>
+      </c>
+      <c r="I29">
+        <v>0.4377720481633577</v>
+      </c>
+      <c r="J29">
+        <v>0.4739007563994012</v>
+      </c>
+      <c r="K29">
+        <v>2.390946748993873</v>
+      </c>
+      <c r="L29">
+        <v>2.254674683721381</v>
+      </c>
+      <c r="M29">
+        <v>1.359954894043572</v>
+      </c>
+      <c r="N29">
+        <v>1.359954894043572</v>
+      </c>
+      <c r="O29">
+        <v>1.638363574742408</v>
+      </c>
+      <c r="P29">
+        <v>1.703618845693672</v>
+      </c>
+      <c r="Q29">
+        <v>1.703618845693672</v>
+      </c>
+      <c r="R29">
+        <v>1.875450821518722</v>
+      </c>
+      <c r="S29">
+        <v>1.875450821518722</v>
+      </c>
+      <c r="T29">
+        <v>1.369618379630642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9199786805971599</v>
+      </c>
+      <c r="D30">
+        <v>1.001795574414096</v>
+      </c>
+      <c r="E30">
+        <v>1.001795574414096</v>
+      </c>
+      <c r="F30">
+        <v>1.166565024506799</v>
+      </c>
+      <c r="G30">
+        <v>1.166565024506799</v>
+      </c>
+      <c r="H30">
+        <v>0.9593171802728706</v>
+      </c>
+      <c r="I30">
+        <v>0.9314239213411278</v>
+      </c>
+      <c r="J30">
+        <v>0.9316327517967588</v>
+      </c>
+      <c r="K30">
+        <v>1.166565024506799</v>
+      </c>
+      <c r="L30">
+        <v>0.9199786805971599</v>
+      </c>
+      <c r="M30">
+        <v>0.960887127505628</v>
+      </c>
+      <c r="N30">
+        <v>0.960887127505628</v>
+      </c>
+      <c r="O30">
+        <v>0.9603638117613755</v>
+      </c>
+      <c r="P30">
+        <v>1.029446426506018</v>
+      </c>
+      <c r="Q30">
+        <v>1.029446426506018</v>
+      </c>
+      <c r="R30">
+        <v>1.063726076006213</v>
+      </c>
+      <c r="S30">
+        <v>1.063726076006213</v>
+      </c>
+      <c r="T30">
+        <v>0.9851188554881353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.171527883761892</v>
+      </c>
+      <c r="D31">
+        <v>0.9549202107480491</v>
+      </c>
+      <c r="E31">
+        <v>0.9549202107480491</v>
+      </c>
+      <c r="F31">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="G31">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="H31">
+        <v>0.7062870760892345</v>
+      </c>
+      <c r="I31">
+        <v>1.370809860806322</v>
+      </c>
+      <c r="J31">
+        <v>1.046941123204391</v>
+      </c>
+      <c r="K31">
+        <v>0.8309472937186446</v>
+      </c>
+      <c r="L31">
+        <v>1.171527883761892</v>
+      </c>
+      <c r="M31">
+        <v>1.06322404725497</v>
+      </c>
+      <c r="N31">
+        <v>1.06322404725497</v>
+      </c>
+      <c r="O31">
+        <v>0.9442450568663917</v>
+      </c>
+      <c r="P31">
+        <v>0.9857984627428618</v>
+      </c>
+      <c r="Q31">
+        <v>0.9857984627428618</v>
+      </c>
+      <c r="R31">
+        <v>0.9470856704868075</v>
+      </c>
+      <c r="S31">
+        <v>0.9470856704868075</v>
+      </c>
+      <c r="T31">
+        <v>1.013572241388089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.416509017963288</v>
+      </c>
+      <c r="D32">
+        <v>0.005367990565616437</v>
+      </c>
+      <c r="E32">
+        <v>0.005367990565616437</v>
+      </c>
+      <c r="F32">
+        <v>5.395101662721644</v>
+      </c>
+      <c r="G32">
+        <v>5.395101662721644</v>
+      </c>
+      <c r="H32">
+        <v>3.360531398154794</v>
+      </c>
+      <c r="I32">
+        <v>0.001277082022465753</v>
+      </c>
+      <c r="J32">
+        <v>0.0005124869895890411</v>
+      </c>
+      <c r="K32">
+        <v>5.395101662721644</v>
+      </c>
+      <c r="L32">
+        <v>3.416509017963288</v>
+      </c>
+      <c r="M32">
+        <v>1.710938504264452</v>
+      </c>
+      <c r="N32">
+        <v>1.710938504264452</v>
+      </c>
+      <c r="O32">
+        <v>2.2608028022279</v>
+      </c>
+      <c r="P32">
+        <v>2.93899289041685</v>
+      </c>
+      <c r="Q32">
+        <v>2.93899289041685</v>
+      </c>
+      <c r="R32">
+        <v>3.553020083493048</v>
+      </c>
+      <c r="S32">
+        <v>3.553020083493048</v>
+      </c>
+      <c r="T32">
+        <v>2.029883273069566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.569455254963158</v>
+      </c>
+      <c r="D33">
+        <v>7.157137927163159</v>
+      </c>
+      <c r="E33">
+        <v>7.157137927163159</v>
+      </c>
+      <c r="F33">
+        <v>3.578939852662105</v>
+      </c>
+      <c r="G33">
+        <v>3.578939852662105</v>
+      </c>
+      <c r="H33">
+        <v>0.002526617810526317</v>
+      </c>
+      <c r="I33">
+        <v>10.71077124286263</v>
+      </c>
+      <c r="J33">
+        <v>-0.007177800078368421</v>
+      </c>
+      <c r="K33">
+        <v>3.578939852662105</v>
+      </c>
+      <c r="L33">
+        <v>3.569455254963158</v>
+      </c>
+      <c r="M33">
+        <v>5.363296591063158</v>
+      </c>
+      <c r="N33">
+        <v>5.363296591063158</v>
+      </c>
+      <c r="O33">
+        <v>3.576373266645614</v>
+      </c>
+      <c r="P33">
+        <v>4.76851101159614</v>
+      </c>
+      <c r="Q33">
+        <v>4.768511011596141</v>
+      </c>
+      <c r="R33">
+        <v>4.471118221862632</v>
+      </c>
+      <c r="S33">
+        <v>4.471118221862632</v>
+      </c>
+      <c r="T33">
+        <v>4.168608849230536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.2202202620578947</v>
+      </c>
+      <c r="D34">
+        <v>-0.001966119700000002</v>
+      </c>
+      <c r="E34">
+        <v>-0.001966119700000002</v>
+      </c>
+      <c r="F34">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="G34">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="H34">
+        <v>0.004359355312105264</v>
+      </c>
+      <c r="I34">
+        <v>-0.008946837121052632</v>
+      </c>
+      <c r="J34">
+        <v>0.5384407343100001</v>
+      </c>
+      <c r="K34">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="L34">
+        <v>0.2202202620578947</v>
+      </c>
+      <c r="M34">
+        <v>0.1091270711789473</v>
+      </c>
+      <c r="N34">
+        <v>0.1091270711789473</v>
+      </c>
+      <c r="O34">
+        <v>0.07420449922333332</v>
+      </c>
+      <c r="P34">
+        <v>2.33359196622807</v>
+      </c>
+      <c r="Q34">
+        <v>2.333591966228071</v>
+      </c>
+      <c r="R34">
+        <v>3.445824413752632</v>
+      </c>
+      <c r="S34">
+        <v>3.445824413752632</v>
+      </c>
+      <c r="T34">
+        <v>1.255771525197544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5141358032642476</v>
+      </c>
+      <c r="D35">
+        <v>0.5231950007778008</v>
+      </c>
+      <c r="E35">
+        <v>0.5231950007778008</v>
+      </c>
+      <c r="F35">
+        <v>0.3837130746808661</v>
+      </c>
+      <c r="G35">
+        <v>0.3837130746808661</v>
+      </c>
+      <c r="H35">
+        <v>0.4612288006887466</v>
+      </c>
+      <c r="I35">
+        <v>0.4462406753335714</v>
+      </c>
+      <c r="J35">
+        <v>0.4638329496062827</v>
+      </c>
+      <c r="K35">
+        <v>0.3837130746808661</v>
+      </c>
+      <c r="L35">
+        <v>0.5141358032642476</v>
+      </c>
+      <c r="M35">
+        <v>0.5186654020210242</v>
+      </c>
+      <c r="N35">
+        <v>0.5186654020210242</v>
+      </c>
+      <c r="O35">
+        <v>0.4995198682435983</v>
+      </c>
+      <c r="P35">
+        <v>0.4736812929076382</v>
+      </c>
+      <c r="Q35">
+        <v>0.4736812929076382</v>
+      </c>
+      <c r="R35">
+        <v>0.4511892383509452</v>
+      </c>
+      <c r="S35">
+        <v>0.4511892383509452</v>
+      </c>
+      <c r="T35">
+        <v>0.4653910507252525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9850122672681534</v>
+      </c>
+      <c r="D36">
+        <v>0.9582785635063016</v>
+      </c>
+      <c r="E36">
+        <v>0.9582785635063016</v>
+      </c>
+      <c r="F36">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="G36">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="H36">
+        <v>0.9943990725193013</v>
+      </c>
+      <c r="I36">
+        <v>1.04239797746004</v>
+      </c>
+      <c r="J36">
+        <v>1.01402718631901</v>
+      </c>
+      <c r="K36">
+        <v>1.012374214605569</v>
+      </c>
+      <c r="L36">
+        <v>0.9850122672681534</v>
+      </c>
+      <c r="M36">
+        <v>0.9716454153872275</v>
+      </c>
+      <c r="N36">
+        <v>0.9716454153872275</v>
+      </c>
+      <c r="O36">
+        <v>0.9792299677645854</v>
+      </c>
+      <c r="P36">
+        <v>0.9852216817933414</v>
+      </c>
+      <c r="Q36">
+        <v>0.9852216817933414</v>
+      </c>
+      <c r="R36">
+        <v>0.9920098149963983</v>
+      </c>
+      <c r="S36">
+        <v>0.9920098149963983</v>
+      </c>
+      <c r="T36">
+        <v>1.001081546946396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.055005758586001</v>
+      </c>
+      <c r="D37">
+        <v>0.970521052556197</v>
+      </c>
+      <c r="E37">
+        <v>0.970521052556197</v>
+      </c>
+      <c r="F37">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="G37">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="H37">
+        <v>1.028389557825304</v>
+      </c>
+      <c r="I37">
+        <v>1.032734754505197</v>
+      </c>
+      <c r="J37">
+        <v>1.007091286890716</v>
+      </c>
+      <c r="K37">
+        <v>1.074298229070822</v>
+      </c>
+      <c r="L37">
+        <v>1.055005758586001</v>
+      </c>
+      <c r="M37">
+        <v>1.012763405571099</v>
+      </c>
+      <c r="N37">
+        <v>1.012763405571099</v>
+      </c>
+      <c r="O37">
+        <v>1.017972122989167</v>
+      </c>
+      <c r="P37">
+        <v>1.03327501340434</v>
+      </c>
+      <c r="Q37">
+        <v>1.03327501340434</v>
+      </c>
+      <c r="R37">
+        <v>1.043530817320961</v>
+      </c>
+      <c r="S37">
+        <v>1.043530817320961</v>
+      </c>
+      <c r="T37">
+        <v>1.02800677323904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.7592886785693652</v>
+      </c>
+      <c r="D38">
+        <v>0.7912020731091428</v>
+      </c>
+      <c r="E38">
+        <v>0.7912020731091428</v>
+      </c>
+      <c r="F38">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="G38">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="H38">
+        <v>0.5788164687499824</v>
+      </c>
+      <c r="I38">
+        <v>0.3508542570844418</v>
+      </c>
+      <c r="J38">
+        <v>0.7799497475227621</v>
+      </c>
+      <c r="K38">
+        <v>1.462671171274371</v>
+      </c>
+      <c r="L38">
+        <v>0.7592886785693652</v>
+      </c>
+      <c r="M38">
+        <v>0.775245375839254</v>
+      </c>
+      <c r="N38">
+        <v>0.775245375839254</v>
+      </c>
+      <c r="O38">
+        <v>0.7097690734761635</v>
+      </c>
+      <c r="P38">
+        <v>1.00438730765096</v>
+      </c>
+      <c r="Q38">
+        <v>1.00438730765096</v>
+      </c>
+      <c r="R38">
+        <v>1.118958273556812</v>
+      </c>
+      <c r="S38">
+        <v>1.118958273556812</v>
+      </c>
+      <c r="T38">
+        <v>0.7871303993850108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.3777137258120523</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>2.323447180031364</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>2.323447180031364</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.53658787879485</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.53658787879485</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.6126119987307714</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.415311463722935</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.5480455578389196</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.53658787879485</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.3777137258120523</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.350580452921708</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.350580452921708</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.104590968191396</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.079249594879422</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.079249594879422</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9435841658582791</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9435841658582791</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.968952967488482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.048157639543576</v>
+      </c>
+      <c r="D40">
+        <v>0.8127937962736405</v>
+      </c>
+      <c r="E40">
+        <v>0.8127937962736405</v>
+      </c>
+      <c r="F40">
+        <v>0.9468651367571009</v>
+      </c>
+      <c r="G40">
+        <v>0.9468651367571009</v>
+      </c>
+      <c r="H40">
+        <v>0.80426399779228</v>
+      </c>
+      <c r="I40">
+        <v>1.737926693601276</v>
+      </c>
+      <c r="J40">
+        <v>0.9784465275178501</v>
+      </c>
+      <c r="K40">
+        <v>0.9468651367571009</v>
+      </c>
+      <c r="L40">
+        <v>1.048157639543576</v>
+      </c>
+      <c r="M40">
+        <v>0.9304757179086083</v>
+      </c>
+      <c r="N40">
+        <v>0.9304757179086083</v>
+      </c>
+      <c r="O40">
+        <v>0.8884051445364989</v>
+      </c>
+      <c r="P40">
+        <v>0.9359388575247726</v>
+      </c>
+      <c r="Q40">
+        <v>0.9359388575247726</v>
+      </c>
+      <c r="R40">
+        <v>0.9386704273328547</v>
+      </c>
+      <c r="S40">
+        <v>0.9386704273328547</v>
+      </c>
+      <c r="T40">
+        <v>1.054742298580954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.994957974900272</v>
+      </c>
+      <c r="D41">
+        <v>0.8620711305367504</v>
+      </c>
+      <c r="E41">
+        <v>0.8620711305367504</v>
+      </c>
+      <c r="F41">
+        <v>1.078096070044479</v>
+      </c>
+      <c r="G41">
+        <v>1.078096070044479</v>
+      </c>
+      <c r="H41">
+        <v>0.9795923026945702</v>
+      </c>
+      <c r="I41">
+        <v>0.7787700625594277</v>
+      </c>
+      <c r="J41">
+        <v>1.007629657708071</v>
+      </c>
+      <c r="K41">
+        <v>1.078096070044479</v>
+      </c>
+      <c r="L41">
+        <v>0.994957974900272</v>
+      </c>
+      <c r="M41">
+        <v>0.9285145527185112</v>
+      </c>
+      <c r="N41">
+        <v>0.9285145527185112</v>
+      </c>
+      <c r="O41">
+        <v>0.9455404693771975</v>
+      </c>
+      <c r="P41">
+        <v>0.9783750584938339</v>
+      </c>
+      <c r="Q41">
+        <v>0.9783750584938339</v>
+      </c>
+      <c r="R41">
+        <v>1.003305311381495</v>
+      </c>
+      <c r="S41">
+        <v>1.003305311381495</v>
+      </c>
+      <c r="T41">
+        <v>0.9501861997405951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.633290086106159</v>
+      </c>
+      <c r="D42">
+        <v>1.324314326723455</v>
+      </c>
+      <c r="E42">
+        <v>1.324314326723455</v>
+      </c>
+      <c r="F42">
+        <v>0.4148698309275325</v>
+      </c>
+      <c r="G42">
+        <v>0.4148698309275325</v>
+      </c>
+      <c r="H42">
+        <v>0.8849679563338384</v>
+      </c>
+      <c r="I42">
+        <v>0.561214204885861</v>
+      </c>
+      <c r="J42">
+        <v>0.9530911253915936</v>
+      </c>
+      <c r="K42">
+        <v>0.4148698309275325</v>
+      </c>
+      <c r="L42">
+        <v>1.633290086106159</v>
+      </c>
+      <c r="M42">
+        <v>1.478802206414807</v>
+      </c>
+      <c r="N42">
+        <v>1.478802206414807</v>
+      </c>
+      <c r="O42">
+        <v>1.280857456387817</v>
+      </c>
+      <c r="P42">
+        <v>1.124158081252382</v>
+      </c>
+      <c r="Q42">
+        <v>1.124158081252382</v>
+      </c>
+      <c r="R42">
+        <v>0.9468360186711697</v>
+      </c>
+      <c r="S42">
+        <v>0.9468360186711697</v>
+      </c>
+      <c r="T42">
+        <v>0.9619579217280733</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.162558771989542</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="D3">
-        <v>0.8995120634713665</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="E3">
-        <v>1.132129380143077</v>
+        <v>0.9450547350057091</v>
       </c>
       <c r="F3">
-        <v>1.162558771989542</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="G3">
-        <v>1.0191059333043</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="H3">
-        <v>1.093169307656317</v>
+        <v>1.020635277025776</v>
       </c>
       <c r="I3">
-        <v>0.9479703448285337</v>
+        <v>1.032368385507709</v>
       </c>
       <c r="J3">
-        <v>0.8995120634713665</v>
+        <v>1.014438977574353</v>
       </c>
       <c r="K3">
-        <v>1.162558771989542</v>
+        <v>1.108465159140367</v>
       </c>
       <c r="L3">
-        <v>1.132129380143077</v>
+        <v>0.9913370598085041</v>
       </c>
       <c r="M3">
-        <v>1.015820721807221</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="N3">
-        <v>1.015820721807221</v>
+        <v>0.9681958974071065</v>
       </c>
       <c r="O3">
-        <v>1.04160358375692</v>
+        <v>0.9856756906133297</v>
       </c>
       <c r="P3">
-        <v>1.064733405201329</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="Q3">
-        <v>1.064733405201328</v>
+        <v>1.01495231798486</v>
       </c>
       <c r="R3">
-        <v>1.089189746898382</v>
+        <v>1.038330528273737</v>
       </c>
       <c r="S3">
-        <v>1.089189746898382</v>
+        <v>1.038330528273737</v>
       </c>
       <c r="T3">
-        <v>1.042407633565523</v>
+        <v>1.018716599010403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.469071175509284</v>
+        <v>1.048157639543576</v>
       </c>
       <c r="D4">
-        <v>0.7815059395026643</v>
+        <v>0.8127937962736405</v>
       </c>
       <c r="E4">
-        <v>1.150249053117235</v>
+        <v>0.8127937962736405</v>
       </c>
       <c r="F4">
-        <v>1.469071175509284</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="G4">
-        <v>1.020168594590092</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="H4">
-        <v>1.452668710387369</v>
+        <v>0.80426399779228</v>
       </c>
       <c r="I4">
-        <v>0.9713222947841953</v>
+        <v>1.737926693601276</v>
       </c>
       <c r="J4">
-        <v>0.7815059395026643</v>
+        <v>0.9784465275178501</v>
       </c>
       <c r="K4">
-        <v>1.469071175509284</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="L4">
-        <v>1.150249053117235</v>
+        <v>1.048157639543576</v>
       </c>
       <c r="M4">
-        <v>0.9658774963099497</v>
+        <v>0.9304757179086083</v>
       </c>
       <c r="N4">
-        <v>0.9658774963099497</v>
+        <v>0.9304757179086083</v>
       </c>
       <c r="O4">
-        <v>1.128141234335756</v>
+        <v>0.8884051445364989</v>
       </c>
       <c r="P4">
-        <v>1.133608722709728</v>
+        <v>0.9359388575247726</v>
       </c>
       <c r="Q4">
-        <v>1.133608722709728</v>
+        <v>0.9359388575247726</v>
       </c>
       <c r="R4">
-        <v>1.217474335909617</v>
+        <v>0.9386704273328547</v>
       </c>
       <c r="S4">
-        <v>1.217474335909617</v>
+        <v>0.9386704273328547</v>
       </c>
       <c r="T4">
-        <v>1.14083096131514</v>
+        <v>1.054742298580954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.966275987331352</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="D5">
-        <v>1.696445512038119</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="E5">
-        <v>1.20237374955589</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="F5">
-        <v>1.966275987331352</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="G5">
-        <v>1.576715572770089</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="H5">
-        <v>1.604185594425074</v>
+        <v>1.00139079472356</v>
       </c>
       <c r="I5">
-        <v>0.4508786257899174</v>
+        <v>0.8219686137087898</v>
       </c>
       <c r="J5">
-        <v>1.696445512038119</v>
+        <v>0.8974883666049408</v>
       </c>
       <c r="K5">
-        <v>1.966275987331352</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="L5">
-        <v>1.20237374955589</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="M5">
-        <v>1.449409630797004</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="N5">
-        <v>1.449409630797004</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="O5">
-        <v>1.501001618673028</v>
+        <v>0.978198602885552</v>
       </c>
       <c r="P5">
-        <v>1.621698416308454</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="Q5">
-        <v>1.621698416308454</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="R5">
-        <v>1.707842809064178</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="S5">
-        <v>1.707842809064178</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="T5">
-        <v>1.416145840318407</v>
+        <v>0.9465445225242571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.010203963243177</v>
+        <v>0.5141358032642476</v>
       </c>
       <c r="D6">
-        <v>0.01090854583517811</v>
+        <v>0.5231950007778008</v>
       </c>
       <c r="E6">
-        <v>4.156387364023578</v>
+        <v>0.5231950007778008</v>
       </c>
       <c r="F6">
-        <v>5.010203963243177</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="G6">
-        <v>0.3987476193353456</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="H6">
-        <v>2.342314963145484</v>
+        <v>0.4612288006887466</v>
       </c>
       <c r="I6">
-        <v>0.1979291070249145</v>
+        <v>0.4462406753335714</v>
       </c>
       <c r="J6">
-        <v>0.01090854583517811</v>
+        <v>0.4638329496062827</v>
       </c>
       <c r="K6">
-        <v>5.010203963243177</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="L6">
-        <v>4.156387364023578</v>
+        <v>0.5141358032642476</v>
       </c>
       <c r="M6">
-        <v>2.083647954929378</v>
+        <v>0.5186654020210242</v>
       </c>
       <c r="N6">
-        <v>2.083647954929378</v>
+        <v>0.5186654020210242</v>
       </c>
       <c r="O6">
-        <v>2.169870291001413</v>
+        <v>0.4995198682435983</v>
       </c>
       <c r="P6">
-        <v>3.059166624367311</v>
+        <v>0.4736812929076382</v>
       </c>
       <c r="Q6">
-        <v>3.059166624367311</v>
+        <v>0.4736812929076382</v>
       </c>
       <c r="R6">
-        <v>3.546925959086278</v>
+        <v>0.4511892383509452</v>
       </c>
       <c r="S6">
-        <v>3.546925959086278</v>
+        <v>0.4511892383509452</v>
       </c>
       <c r="T6">
-        <v>2.019415260434613</v>
+        <v>0.4653910507252525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.060274422946103</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="D7">
-        <v>0.9529256960707623</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="E7">
-        <v>1.003885234693757</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="F7">
-        <v>1.060274422946103</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="G7">
-        <v>1.026649561624163</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="H7">
-        <v>1.009095792120287</v>
+        <v>1.12768230227852</v>
       </c>
       <c r="I7">
-        <v>1.013605388495307</v>
+        <v>0.981162258209054</v>
       </c>
       <c r="J7">
-        <v>0.9529256960707623</v>
+        <v>0.9720338510844156</v>
       </c>
       <c r="K7">
-        <v>1.060274422946103</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="L7">
-        <v>1.003885234693757</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="M7">
-        <v>0.9784054653822596</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="N7">
-        <v>0.9784054653822596</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="O7">
-        <v>0.9886355742949352</v>
+        <v>1.041201675595381</v>
       </c>
       <c r="P7">
-        <v>1.00569511790354</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="Q7">
-        <v>1.00569511790354</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="R7">
-        <v>1.019339944164181</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="S7">
-        <v>1.019339944164181</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="T7">
-        <v>1.011072682658396</v>
+        <v>1.036004664026939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.108465159140368</v>
+        <v>1.055005758586001</v>
       </c>
       <c r="D8">
-        <v>0.9450547350057095</v>
+        <v>0.970521052556197</v>
       </c>
       <c r="E8">
-        <v>0.9913370598085007</v>
+        <v>0.970521052556197</v>
       </c>
       <c r="F8">
-        <v>1.108465159140368</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="G8">
-        <v>1.03236838550771</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="H8">
-        <v>1.020635277025776</v>
+        <v>1.028389557825304</v>
       </c>
       <c r="I8">
-        <v>1.014438977574355</v>
+        <v>1.032734754505197</v>
       </c>
       <c r="J8">
-        <v>0.9450547350057095</v>
+        <v>1.007091286890716</v>
       </c>
       <c r="K8">
-        <v>1.108465159140368</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="L8">
-        <v>0.9913370598085007</v>
+        <v>1.055005758586001</v>
       </c>
       <c r="M8">
-        <v>0.9681958974071051</v>
+        <v>1.012763405571099</v>
       </c>
       <c r="N8">
-        <v>0.9681958974071051</v>
+        <v>1.012763405571099</v>
       </c>
       <c r="O8">
-        <v>0.9856756906133288</v>
+        <v>1.017972122989167</v>
       </c>
       <c r="P8">
-        <v>1.014952317984859</v>
+        <v>1.03327501340434</v>
       </c>
       <c r="Q8">
-        <v>1.014952317984859</v>
+        <v>1.03327501340434</v>
       </c>
       <c r="R8">
-        <v>1.038330528273737</v>
+        <v>1.043530817320961</v>
       </c>
       <c r="S8">
-        <v>1.038330528273737</v>
+        <v>1.043530817320961</v>
       </c>
       <c r="T8">
-        <v>1.018716599010403</v>
+        <v>1.02800677323904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.344955730875354</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="D9">
-        <v>0.9200171289721006</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="E9">
-        <v>1.074318518456329</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="F9">
-        <v>1.344955730875354</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="G9">
-        <v>1.028158390196445</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="H9">
-        <v>1.014384596804231</v>
+        <v>1.452668710387369</v>
       </c>
       <c r="I9">
-        <v>0.9942567931185642</v>
+        <v>1.020168594590092</v>
       </c>
       <c r="J9">
-        <v>0.9200171289721006</v>
+        <v>0.9713222947841953</v>
       </c>
       <c r="K9">
-        <v>1.344955730875354</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="L9">
-        <v>1.074318518456329</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="M9">
-        <v>0.9971678237142149</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="N9">
-        <v>0.9971678237142149</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="O9">
-        <v>1.002906748077554</v>
+        <v>1.128141234335756</v>
       </c>
       <c r="P9">
-        <v>1.113097126101261</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="Q9">
-        <v>1.113097126101261</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="R9">
-        <v>1.171061777294784</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="S9">
-        <v>1.171061777294784</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="T9">
-        <v>1.062681859737171</v>
+        <v>1.14083096131514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.605050621820924</v>
+        <v>0.534351356663731</v>
       </c>
       <c r="D10">
-        <v>0.9641873814027396</v>
+        <v>0.3934263591388409</v>
       </c>
       <c r="E10">
-        <v>0.9464413210042044</v>
+        <v>0.3934263591388409</v>
       </c>
       <c r="F10">
-        <v>1.605050621820924</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="G10">
-        <v>1.001797515079361</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="H10">
-        <v>1.045836125114503</v>
+        <v>0.4994056091792287</v>
       </c>
       <c r="I10">
-        <v>1.069886664788025</v>
+        <v>0.4327874609086681</v>
       </c>
       <c r="J10">
-        <v>0.9641873814027396</v>
+        <v>0.4741813206465308</v>
       </c>
       <c r="K10">
-        <v>1.605050621820924</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="L10">
-        <v>0.9464413210042044</v>
+        <v>0.534351356663731</v>
       </c>
       <c r="M10">
-        <v>0.9553143512034721</v>
+        <v>0.463888857901286</v>
       </c>
       <c r="N10">
-        <v>0.9553143512034721</v>
+        <v>0.463888857901286</v>
       </c>
       <c r="O10">
-        <v>0.9854882758404825</v>
+        <v>0.4757277749939335</v>
       </c>
       <c r="P10">
-        <v>1.171893108075956</v>
+        <v>0.4125770800403831</v>
       </c>
       <c r="Q10">
-        <v>1.171893108075956</v>
+        <v>0.4125770800403831</v>
       </c>
       <c r="R10">
-        <v>1.280182486512198</v>
+        <v>0.3869211911099317</v>
       </c>
       <c r="S10">
-        <v>1.280182486512198</v>
+        <v>0.3869211911099317</v>
       </c>
       <c r="T10">
-        <v>1.105533271534959</v>
+        <v>0.4406842718092628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.831006857798118</v>
+        <v>1.079164606236962</v>
       </c>
       <c r="D11">
-        <v>0.3348744261900233</v>
+        <v>0.7150680963170207</v>
       </c>
       <c r="E11">
-        <v>0.993091641440385</v>
+        <v>0.7150680963170207</v>
       </c>
       <c r="F11">
-        <v>1.831006857798118</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="G11">
-        <v>1.5374990944531</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="H11">
-        <v>1.253579745862918</v>
+        <v>0.8447304279190587</v>
       </c>
       <c r="I11">
-        <v>1.086685070217449</v>
+        <v>0.9417393805838445</v>
       </c>
       <c r="J11">
-        <v>0.3348744261900233</v>
+        <v>1.031378082150581</v>
       </c>
       <c r="K11">
-        <v>1.831006857798118</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="L11">
-        <v>0.993091641440385</v>
+        <v>1.079164606236962</v>
       </c>
       <c r="M11">
-        <v>0.6639830338152042</v>
+        <v>0.8971163512769915</v>
       </c>
       <c r="N11">
-        <v>0.6639830338152042</v>
+        <v>0.8971163512769915</v>
       </c>
       <c r="O11">
-        <v>0.860515271164442</v>
+        <v>0.8796543768243472</v>
       </c>
       <c r="P11">
-        <v>1.052990975142842</v>
+        <v>0.8831582266384724</v>
       </c>
       <c r="Q11">
-        <v>1.052990975142842</v>
+        <v>0.8831582266384724</v>
       </c>
       <c r="R11">
-        <v>1.247494945806661</v>
+        <v>0.8761791643192129</v>
       </c>
       <c r="S11">
-        <v>1.247494945806661</v>
+        <v>0.8761791643192129</v>
       </c>
       <c r="T11">
-        <v>1.172789472660332</v>
+        <v>0.9112204284281501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9733623593361578</v>
+        <v>1.098024033781389</v>
       </c>
       <c r="D12">
-        <v>0.0008011628315111555</v>
+        <v>0.7191203928120624</v>
       </c>
       <c r="E12">
-        <v>2.455860173810053</v>
+        <v>0.7191203928120624</v>
       </c>
       <c r="F12">
-        <v>0.9733623593361578</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="G12">
-        <v>0.0007674696421989483</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="H12">
-        <v>1.049289727798783</v>
+        <v>0.8843291286188738</v>
       </c>
       <c r="I12">
-        <v>0.6476216206216454</v>
+        <v>0.952058700816023</v>
       </c>
       <c r="J12">
-        <v>0.0008011628315111555</v>
+        <v>0.9141500375877287</v>
       </c>
       <c r="K12">
-        <v>0.9733623593361578</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="L12">
-        <v>2.455860173810053</v>
+        <v>1.098024033781389</v>
       </c>
       <c r="M12">
-        <v>1.228330668320782</v>
+        <v>0.9085722132967259</v>
       </c>
       <c r="N12">
-        <v>1.228330668320782</v>
+        <v>0.9085722132967259</v>
       </c>
       <c r="O12">
-        <v>1.168650354813449</v>
+        <v>0.9004911850707752</v>
       </c>
       <c r="P12">
-        <v>1.143341231992574</v>
+        <v>0.8012692910160938</v>
       </c>
       <c r="Q12">
-        <v>1.143341231992574</v>
+        <v>0.8012692910160938</v>
       </c>
       <c r="R12">
-        <v>1.10084651382847</v>
+        <v>0.7476178298757777</v>
       </c>
       <c r="S12">
-        <v>1.10084651382847</v>
+        <v>0.7476178298757777</v>
       </c>
       <c r="T12">
-        <v>0.8546170856733917</v>
+        <v>0.8590576233451511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1851860236774948</v>
+        <v>1.033008305857226</v>
       </c>
       <c r="D13">
-        <v>2.937808520067117</v>
+        <v>0.7232479323436021</v>
       </c>
       <c r="E13">
-        <v>0.4508514240154859</v>
+        <v>0.7232479323436021</v>
       </c>
       <c r="F13">
-        <v>0.1851860236774948</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="G13">
-        <v>2.724418081173898</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="H13">
-        <v>0.1675984646413447</v>
+        <v>0.9905776113844961</v>
       </c>
       <c r="I13">
-        <v>0.751729088799597</v>
+        <v>0.9692812386458088</v>
       </c>
       <c r="J13">
-        <v>2.937808520067117</v>
+        <v>1.080556754813155</v>
       </c>
       <c r="K13">
-        <v>0.1851860236774948</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="L13">
-        <v>0.4508514240154859</v>
+        <v>1.033008305857226</v>
       </c>
       <c r="M13">
-        <v>1.694329972041301</v>
+        <v>0.8781281191004139</v>
       </c>
       <c r="N13">
-        <v>1.694329972041301</v>
+        <v>0.8781281191004139</v>
       </c>
       <c r="O13">
-        <v>1.185419469574649</v>
+        <v>0.915611283195108</v>
       </c>
       <c r="P13">
-        <v>1.191281989253366</v>
+        <v>0.809333259654994</v>
       </c>
       <c r="Q13">
-        <v>1.191281989253366</v>
+        <v>0.809333259654994</v>
       </c>
       <c r="R13">
-        <v>0.9397579978593982</v>
+        <v>0.7749358299322842</v>
       </c>
       <c r="S13">
-        <v>0.9397579978593982</v>
+        <v>0.7749358299322842</v>
       </c>
       <c r="T13">
-        <v>1.202931933729156</v>
+        <v>0.9114025639680735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001491377477314469</v>
+        <v>0.004449427499999996</v>
       </c>
       <c r="D14">
-        <v>5.231471117892404</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="E14">
-        <v>0.429578594880451</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="F14">
-        <v>0.001491377477314469</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="G14">
-        <v>0.3768814454090605</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="H14">
-        <v>3.419812016970432</v>
+        <v>0.02911678000000002</v>
       </c>
       <c r="I14">
-        <v>0.1532284538066767</v>
+        <v>0.0006251573999999997</v>
       </c>
       <c r="J14">
-        <v>5.231471117892404</v>
+        <v>-0.01173211299999999</v>
       </c>
       <c r="K14">
-        <v>0.001491377477314469</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="L14">
-        <v>0.429578594880451</v>
+        <v>0.004449427499999996</v>
       </c>
       <c r="M14">
-        <v>2.830524856386428</v>
+        <v>0.003083308299999999</v>
       </c>
       <c r="N14">
-        <v>2.830524856386428</v>
+        <v>0.003083308299999999</v>
       </c>
       <c r="O14">
-        <v>3.026953909914429</v>
+        <v>0.0117611322</v>
       </c>
       <c r="P14">
-        <v>1.887513696750057</v>
+        <v>0.0004128385999999989</v>
       </c>
       <c r="Q14">
-        <v>1.887513696750057</v>
+        <v>0.0004128385999999989</v>
       </c>
       <c r="R14">
-        <v>1.416008116931871</v>
+        <v>-0.000922396250000001</v>
       </c>
       <c r="S14">
-        <v>1.416008116931871</v>
+        <v>-0.000922396250000001</v>
       </c>
       <c r="T14">
-        <v>1.60207716773939</v>
+        <v>0.003208056700000003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4381435261136661</v>
+        <v>-0.012240956</v>
       </c>
       <c r="D15">
-        <v>-6.389891926698307E-05</v>
+        <v>0.00070900843</v>
       </c>
       <c r="E15">
-        <v>1.826986814728061</v>
+        <v>0.00070900843</v>
       </c>
       <c r="F15">
-        <v>0.4381435261136661</v>
+        <v>121.14151</v>
       </c>
       <c r="G15">
-        <v>0.001705017452521931</v>
+        <v>121.14151</v>
       </c>
       <c r="H15">
-        <v>1.67992267616932</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I15">
-        <v>2.03080385624034</v>
+        <v>0.010282672</v>
       </c>
       <c r="J15">
-        <v>-6.389891926698307E-05</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K15">
-        <v>0.4381435261136661</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>1.826986814728061</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.9134614579043971</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N15">
-        <v>0.9134614579043971</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O15">
-        <v>1.168948530659372</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P15">
-        <v>0.7550221473074868</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q15">
-        <v>0.7550221473074868</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R15">
-        <v>0.6758024920090316</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S15">
-        <v>0.6758024920090316</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T15">
-        <v>0.9962496652974403</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012374214605569</v>
+        <v>0.012775414</v>
       </c>
       <c r="D16">
-        <v>0.9582785635063008</v>
+        <v>-0.017068093</v>
       </c>
       <c r="E16">
-        <v>0.9850122672681521</v>
+        <v>-0.017068093</v>
       </c>
       <c r="F16">
-        <v>1.012374214605569</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="G16">
-        <v>1.042397977460041</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="H16">
-        <v>0.994399072519302</v>
+        <v>0.0026225339</v>
       </c>
       <c r="I16">
-        <v>1.01402718631901</v>
+        <v>0.035021694</v>
       </c>
       <c r="J16">
-        <v>0.9582785635063008</v>
+        <v>0.0008526366199999999</v>
       </c>
       <c r="K16">
-        <v>1.012374214605569</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="L16">
-        <v>0.9850122672681521</v>
+        <v>0.012775414</v>
       </c>
       <c r="M16">
-        <v>0.9716454153872265</v>
+        <v>-0.002146339499999999</v>
       </c>
       <c r="N16">
-        <v>0.9716454153872265</v>
+        <v>-0.002146339499999999</v>
       </c>
       <c r="O16">
-        <v>0.979229967764585</v>
+        <v>-0.0005567150333333329</v>
       </c>
       <c r="P16">
-        <v>0.9852216817933407</v>
+        <v>0.001375445566666667</v>
       </c>
       <c r="Q16">
-        <v>0.9852216817933407</v>
+        <v>0.001375445566666667</v>
       </c>
       <c r="R16">
-        <v>0.9920098149963978</v>
+        <v>0.003136338100000001</v>
       </c>
       <c r="S16">
-        <v>0.9920098149963978</v>
+        <v>0.003136338100000001</v>
       </c>
       <c r="T16">
-        <v>1.001081546946396</v>
+        <v>0.00710386687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.074298229070821</v>
+        <v>29.448082</v>
       </c>
       <c r="D17">
-        <v>0.9705210525561982</v>
+        <v>-0.007828396099999999</v>
       </c>
       <c r="E17">
-        <v>1.055005758586</v>
+        <v>-0.007828396099999999</v>
       </c>
       <c r="F17">
-        <v>1.074298229070821</v>
+        <v>4.9002061</v>
       </c>
       <c r="G17">
-        <v>1.032734754505196</v>
+        <v>4.9002061</v>
       </c>
       <c r="H17">
-        <v>1.028389557825304</v>
+        <v>-0.0028558363</v>
       </c>
       <c r="I17">
-        <v>1.007091286890714</v>
+        <v>-0.0043976936</v>
       </c>
       <c r="J17">
-        <v>0.9705210525561982</v>
+        <v>-0.008838941600000001</v>
       </c>
       <c r="K17">
-        <v>1.074298229070821</v>
+        <v>4.9002061</v>
       </c>
       <c r="L17">
-        <v>1.055005758586</v>
+        <v>29.448082</v>
       </c>
       <c r="M17">
-        <v>1.012763405571099</v>
+        <v>14.72012680195</v>
       </c>
       <c r="N17">
-        <v>1.012763405571099</v>
+        <v>14.72012680195</v>
       </c>
       <c r="O17">
-        <v>1.017972122989167</v>
+        <v>9.812465922533333</v>
       </c>
       <c r="P17">
-        <v>1.03327501340434</v>
+        <v>11.4468199013</v>
       </c>
       <c r="Q17">
-        <v>1.03327501340434</v>
+        <v>11.4468199013</v>
       </c>
       <c r="R17">
-        <v>1.04353081732096</v>
+        <v>9.810166450975</v>
       </c>
       <c r="S17">
-        <v>1.04353081732096</v>
+        <v>9.810166450975</v>
       </c>
       <c r="T17">
-        <v>1.028006773239039</v>
+        <v>5.720727872066668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.462671171274368</v>
+        <v>3.416509017963288</v>
       </c>
       <c r="D18">
-        <v>0.7912020731091431</v>
+        <v>0.005367990565616437</v>
       </c>
       <c r="E18">
-        <v>0.7592886785693649</v>
+        <v>0.005367990565616437</v>
       </c>
       <c r="F18">
-        <v>1.462671171274368</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="G18">
-        <v>0.350854257084442</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="H18">
-        <v>0.5788164687499811</v>
+        <v>3.360531398154794</v>
       </c>
       <c r="I18">
-        <v>0.7799497475227609</v>
+        <v>0.001277082022465753</v>
       </c>
       <c r="J18">
-        <v>0.7912020731091431</v>
+        <v>0.0005124869895890411</v>
       </c>
       <c r="K18">
-        <v>1.462671171274368</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="L18">
-        <v>0.7592886785693649</v>
+        <v>3.416509017963288</v>
       </c>
       <c r="M18">
-        <v>0.775245375839254</v>
+        <v>1.710938504264452</v>
       </c>
       <c r="N18">
-        <v>0.775245375839254</v>
+        <v>1.710938504264452</v>
       </c>
       <c r="O18">
-        <v>0.709769073476163</v>
+        <v>2.2608028022279</v>
       </c>
       <c r="P18">
-        <v>1.004387307650959</v>
+        <v>2.93899289041685</v>
       </c>
       <c r="Q18">
-        <v>1.004387307650959</v>
+        <v>2.93899289041685</v>
       </c>
       <c r="R18">
-        <v>1.118958273556811</v>
+        <v>3.553020083493048</v>
       </c>
       <c r="S18">
-        <v>1.118958273556811</v>
+        <v>3.553020083493048</v>
       </c>
       <c r="T18">
-        <v>0.7871303993850099</v>
+        <v>2.029883273069566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.53658787879485</v>
+        <v>3.569455254963158</v>
       </c>
       <c r="D19">
-        <v>2.323447180031363</v>
+        <v>7.157137927163159</v>
       </c>
       <c r="E19">
-        <v>0.3777137258120523</v>
+        <v>7.157137927163159</v>
       </c>
       <c r="F19">
-        <v>0.53658787879485</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="G19">
-        <v>1.415311463722935</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="H19">
-        <v>0.6126119987307714</v>
+        <v>0.002526617810526317</v>
       </c>
       <c r="I19">
-        <v>0.5480455578389196</v>
+        <v>10.71077124286263</v>
       </c>
       <c r="J19">
-        <v>2.323447180031363</v>
+        <v>-0.007177800078368421</v>
       </c>
       <c r="K19">
-        <v>0.53658787879485</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="L19">
-        <v>0.3777137258120523</v>
+        <v>3.569455254963158</v>
       </c>
       <c r="M19">
-        <v>1.350580452921708</v>
+        <v>5.363296591063158</v>
       </c>
       <c r="N19">
-        <v>1.350580452921708</v>
+        <v>5.363296591063158</v>
       </c>
       <c r="O19">
-        <v>1.104590968191396</v>
+        <v>3.576373266645614</v>
       </c>
       <c r="P19">
-        <v>1.079249594879422</v>
+        <v>4.76851101159614</v>
       </c>
       <c r="Q19">
-        <v>1.079249594879422</v>
+        <v>4.768511011596141</v>
       </c>
       <c r="R19">
-        <v>0.943584165858279</v>
+        <v>4.471118221862632</v>
       </c>
       <c r="S19">
-        <v>0.943584165858279</v>
+        <v>4.471118221862632</v>
       </c>
       <c r="T19">
-        <v>0.968952967488482</v>
+        <v>4.168608849230536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.2202202620578947</v>
+      </c>
+      <c r="D20">
+        <v>-0.001966119700000002</v>
+      </c>
+      <c r="E20">
+        <v>-0.001966119700000002</v>
+      </c>
+      <c r="F20">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="G20">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="H20">
+        <v>0.004359355312105264</v>
+      </c>
+      <c r="I20">
+        <v>-0.008946837121052632</v>
+      </c>
+      <c r="J20">
+        <v>0.5384407343100001</v>
+      </c>
+      <c r="K20">
+        <v>6.782521756326316</v>
+      </c>
+      <c r="L20">
+        <v>0.2202202620578947</v>
+      </c>
+      <c r="M20">
+        <v>0.1091270711789473</v>
+      </c>
+      <c r="N20">
+        <v>0.1091270711789473</v>
+      </c>
+      <c r="O20">
+        <v>0.07420449922333332</v>
+      </c>
+      <c r="P20">
+        <v>2.33359196622807</v>
+      </c>
+      <c r="Q20">
+        <v>2.333591966228071</v>
+      </c>
+      <c r="R20">
+        <v>3.445824413752632</v>
+      </c>
+      <c r="S20">
+        <v>3.445824413752632</v>
+      </c>
+      <c r="T20">
+        <v>1.255771525197544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4295785948804509</v>
+      </c>
+      <c r="D21">
+        <v>5.23147111789241</v>
+      </c>
+      <c r="E21">
+        <v>5.23147111789241</v>
+      </c>
+      <c r="F21">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="G21">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="H21">
+        <v>3.419812016970432</v>
+      </c>
+      <c r="I21">
+        <v>0.3768814454090609</v>
+      </c>
+      <c r="J21">
+        <v>0.1532284538066766</v>
+      </c>
+      <c r="K21">
+        <v>0.001491377477314472</v>
+      </c>
+      <c r="L21">
+        <v>0.4295785948804509</v>
+      </c>
+      <c r="M21">
+        <v>2.830524856386431</v>
+      </c>
+      <c r="N21">
+        <v>2.830524856386431</v>
+      </c>
+      <c r="O21">
+        <v>3.026953909914431</v>
+      </c>
+      <c r="P21">
+        <v>1.887513696750059</v>
+      </c>
+      <c r="Q21">
+        <v>1.887513696750059</v>
+      </c>
+      <c r="R21">
+        <v>1.416008116931873</v>
+      </c>
+      <c r="S21">
+        <v>1.416008116931873</v>
+      </c>
+      <c r="T21">
+        <v>1.602077167739391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.826986814728061</v>
+      </c>
+      <c r="D22">
+        <v>-6.389891926698433E-05</v>
+      </c>
+      <c r="E22">
+        <v>-6.389891926698433E-05</v>
+      </c>
+      <c r="F22">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="G22">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="H22">
+        <v>1.67992267616932</v>
+      </c>
+      <c r="I22">
+        <v>0.001705017452521932</v>
+      </c>
+      <c r="J22">
+        <v>2.030803856240341</v>
+      </c>
+      <c r="K22">
+        <v>0.4381435261136661</v>
+      </c>
+      <c r="L22">
+        <v>1.826986814728061</v>
+      </c>
+      <c r="M22">
+        <v>0.9134614579043973</v>
+      </c>
+      <c r="N22">
+        <v>0.9134614579043973</v>
+      </c>
+      <c r="O22">
+        <v>1.168948530659372</v>
+      </c>
+      <c r="P22">
+        <v>0.7550221473074868</v>
+      </c>
+      <c r="Q22">
+        <v>0.7550221473074868</v>
+      </c>
+      <c r="R22">
+        <v>0.6758024920090316</v>
+      </c>
+      <c r="S22">
+        <v>0.6758024920090316</v>
+      </c>
+      <c r="T22">
+        <v>0.9962496652974405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2.455860173810053</v>
+      </c>
+      <c r="D23">
+        <v>0.000801162831511158</v>
+      </c>
+      <c r="E23">
+        <v>0.000801162831511158</v>
+      </c>
+      <c r="F23">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="G23">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="H23">
+        <v>1.049289727798779</v>
+      </c>
+      <c r="I23">
+        <v>0.0007674696421989481</v>
+      </c>
+      <c r="J23">
+        <v>0.6476216206216451</v>
+      </c>
+      <c r="K23">
+        <v>0.9733623593361579</v>
+      </c>
+      <c r="L23">
+        <v>2.455860173810053</v>
+      </c>
+      <c r="M23">
+        <v>1.228330668320782</v>
+      </c>
+      <c r="N23">
+        <v>1.228330668320782</v>
+      </c>
+      <c r="O23">
+        <v>1.168650354813448</v>
+      </c>
+      <c r="P23">
+        <v>1.143341231992574</v>
+      </c>
+      <c r="Q23">
+        <v>1.143341231992574</v>
+      </c>
+      <c r="R23">
+        <v>1.10084651382847</v>
+      </c>
+      <c r="S23">
+        <v>1.10084651382847</v>
+      </c>
+      <c r="T23">
+        <v>0.8546170856733908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4508514240154859</v>
+      </c>
+      <c r="D24">
+        <v>2.937808520067123</v>
+      </c>
+      <c r="E24">
+        <v>2.937808520067123</v>
+      </c>
+      <c r="F24">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="G24">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="H24">
+        <v>0.167598464641344</v>
+      </c>
+      <c r="I24">
+        <v>2.724418081173896</v>
+      </c>
+      <c r="J24">
+        <v>0.7517290887995984</v>
+      </c>
+      <c r="K24">
+        <v>0.1851860236774952</v>
+      </c>
+      <c r="L24">
+        <v>0.4508514240154859</v>
+      </c>
+      <c r="M24">
+        <v>1.694329972041305</v>
+      </c>
+      <c r="N24">
+        <v>1.694329972041305</v>
+      </c>
+      <c r="O24">
+        <v>1.185419469574651</v>
+      </c>
+      <c r="P24">
+        <v>1.191281989253368</v>
+      </c>
+      <c r="Q24">
+        <v>1.191281989253368</v>
+      </c>
+      <c r="R24">
+        <v>0.9397579978594</v>
+      </c>
+      <c r="S24">
+        <v>0.9397579978594</v>
+      </c>
+      <c r="T24">
+        <v>1.202931933729157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.01143529985590244</v>
+      </c>
+      <c r="D25">
+        <v>-6.856006785645976E-05</v>
+      </c>
+      <c r="E25">
+        <v>-6.856006785645976E-05</v>
+      </c>
+      <c r="F25">
+        <v>5.68249493904516</v>
+      </c>
+      <c r="G25">
+        <v>5.68249493904516</v>
+      </c>
+      <c r="H25">
+        <v>-0.0005721917695175929</v>
+      </c>
+      <c r="I25">
+        <v>0.0002028025507328284</v>
+      </c>
+      <c r="J25">
+        <v>1.811914788952166</v>
+      </c>
+      <c r="K25">
+        <v>5.68249493904516</v>
+      </c>
+      <c r="L25">
+        <v>0.01143529985590244</v>
+      </c>
+      <c r="M25">
+        <v>0.005683369894022988</v>
+      </c>
+      <c r="N25">
+        <v>0.005683369894022988</v>
+      </c>
+      <c r="O25">
+        <v>0.003598182672842794</v>
+      </c>
+      <c r="P25">
+        <v>1.897953892944402</v>
+      </c>
+      <c r="Q25">
+        <v>1.897953892944402</v>
+      </c>
+      <c r="R25">
+        <v>2.844089154469591</v>
+      </c>
+      <c r="S25">
+        <v>2.844089154469591</v>
+      </c>
+      <c r="T25">
+        <v>1.250901179761098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.173242833301661</v>
+      </c>
+      <c r="D26">
+        <v>0.001068980339795612</v>
+      </c>
+      <c r="E26">
+        <v>0.001068980339795612</v>
+      </c>
+      <c r="F26">
+        <v>0.0001585843565978693</v>
+      </c>
+      <c r="G26">
+        <v>0.0001585843565978693</v>
+      </c>
+      <c r="H26">
+        <v>1.744833413606196</v>
+      </c>
+      <c r="I26">
+        <v>3.626570120374998</v>
+      </c>
+      <c r="J26">
+        <v>1.505873211767682</v>
+      </c>
+      <c r="K26">
+        <v>0.0001585843565978693</v>
+      </c>
+      <c r="L26">
+        <v>2.173242833301661</v>
+      </c>
+      <c r="M26">
+        <v>1.087155906820728</v>
+      </c>
+      <c r="N26">
+        <v>1.087155906820728</v>
+      </c>
+      <c r="O26">
+        <v>1.306381742415884</v>
+      </c>
+      <c r="P26">
+        <v>0.7248234659993514</v>
+      </c>
+      <c r="Q26">
+        <v>0.7248234659993514</v>
+      </c>
+      <c r="R26">
+        <v>0.543657245588663</v>
+      </c>
+      <c r="S26">
+        <v>0.543657245588663</v>
+      </c>
+      <c r="T26">
+        <v>1.508624523957822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.003618314439536923</v>
+      </c>
+      <c r="D27">
+        <v>7.469479689614475</v>
+      </c>
+      <c r="E27">
+        <v>7.469479689614475</v>
+      </c>
+      <c r="F27">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="G27">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="H27">
+        <v>0.002688517673063215</v>
+      </c>
+      <c r="I27">
+        <v>9.298141486686823</v>
+      </c>
+      <c r="J27">
+        <v>1.050409114852244</v>
+      </c>
+      <c r="K27">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="L27">
+        <v>-0.003618314439536923</v>
+      </c>
+      <c r="M27">
+        <v>3.732930687587469</v>
+      </c>
+      <c r="N27">
+        <v>3.732930687587469</v>
+      </c>
+      <c r="O27">
+        <v>2.489516630949334</v>
+      </c>
+      <c r="P27">
+        <v>2.600830174168278</v>
+      </c>
+      <c r="Q27">
+        <v>2.600830174168278</v>
+      </c>
+      <c r="R27">
+        <v>2.034779917458683</v>
+      </c>
+      <c r="S27">
+        <v>2.034779917458683</v>
+      </c>
+      <c r="T27">
+        <v>3.025621606952827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7712057217646897</v>
+      </c>
+      <c r="D28">
+        <v>0.001913379107838458</v>
+      </c>
+      <c r="E28">
+        <v>0.001913379107838458</v>
+      </c>
+      <c r="F28">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="G28">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="H28">
+        <v>1.57388369995671</v>
+      </c>
+      <c r="I28">
+        <v>-0.006347510362183717</v>
+      </c>
+      <c r="J28">
+        <v>0.1321378405359183</v>
+      </c>
+      <c r="K28">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="L28">
+        <v>0.7712057217646897</v>
+      </c>
+      <c r="M28">
+        <v>0.3865595504362641</v>
+      </c>
+      <c r="N28">
+        <v>0.3865595504362641</v>
+      </c>
+      <c r="O28">
+        <v>0.7823342669430794</v>
+      </c>
+      <c r="P28">
+        <v>0.7271217025414863</v>
+      </c>
+      <c r="Q28">
+        <v>0.7271217025414863</v>
+      </c>
+      <c r="R28">
+        <v>0.8974027785940974</v>
+      </c>
+      <c r="S28">
+        <v>0.8974027785940974</v>
+      </c>
+      <c r="T28">
+        <v>0.646839856292484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.2088380626328008</v>
+      </c>
+      <c r="D29">
+        <v>-0.00857632445205341</v>
+      </c>
+      <c r="E29">
+        <v>-0.00857632445205341</v>
+      </c>
+      <c r="F29">
+        <v>0.0131197658112737</v>
+      </c>
+      <c r="G29">
+        <v>0.0131197658112737</v>
+      </c>
+      <c r="H29">
+        <v>0.8540990208890146</v>
+      </c>
+      <c r="I29">
+        <v>-0.01081245183200102</v>
+      </c>
+      <c r="J29">
+        <v>0.007431728347854618</v>
+      </c>
+      <c r="K29">
+        <v>0.0131197658112737</v>
+      </c>
+      <c r="L29">
+        <v>0.2088380626328008</v>
+      </c>
+      <c r="M29">
+        <v>0.1001308690903737</v>
+      </c>
+      <c r="N29">
+        <v>0.1001308690903737</v>
+      </c>
+      <c r="O29">
+        <v>0.3514535863565873</v>
+      </c>
+      <c r="P29">
+        <v>0.07112716799734037</v>
+      </c>
+      <c r="Q29">
+        <v>0.07112716799734038</v>
+      </c>
+      <c r="R29">
+        <v>0.05662531745082371</v>
+      </c>
+      <c r="S29">
+        <v>0.05662531745082371</v>
+      </c>
+      <c r="T29">
+        <v>0.1773499668994816</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.048157639543576</v>
+        <v>1.05547366107681</v>
       </c>
       <c r="D4">
-        <v>0.8127937962736405</v>
+        <v>0.9293049069117484</v>
       </c>
       <c r="E4">
-        <v>0.8127937962736405</v>
+        <v>0.9293049069117484</v>
       </c>
       <c r="F4">
-        <v>0.9468651367571009</v>
+        <v>0.8055632166778319</v>
       </c>
       <c r="G4">
-        <v>0.9468651367571009</v>
+        <v>0.8055632166778319</v>
       </c>
       <c r="H4">
-        <v>0.80426399779228</v>
+        <v>0.9929761690267461</v>
       </c>
       <c r="I4">
-        <v>1.737926693601276</v>
+        <v>0.8784123994539917</v>
       </c>
       <c r="J4">
-        <v>0.9784465275178501</v>
+        <v>0.9516032751553604</v>
       </c>
       <c r="K4">
-        <v>0.9468651367571009</v>
+        <v>0.8055632166778319</v>
       </c>
       <c r="L4">
-        <v>1.048157639543576</v>
+        <v>1.05547366107681</v>
       </c>
       <c r="M4">
-        <v>0.9304757179086083</v>
+        <v>0.9923892839942789</v>
       </c>
       <c r="N4">
-        <v>0.9304757179086083</v>
+        <v>0.9923892839942789</v>
       </c>
       <c r="O4">
-        <v>0.8884051445364989</v>
+        <v>0.9925849123384346</v>
       </c>
       <c r="P4">
-        <v>0.9359388575247726</v>
+        <v>0.9301139282221299</v>
       </c>
       <c r="Q4">
-        <v>0.9359388575247726</v>
+        <v>0.9301139282221301</v>
       </c>
       <c r="R4">
-        <v>0.9386704273328547</v>
+        <v>0.8989762503360555</v>
       </c>
       <c r="S4">
-        <v>0.9386704273328547</v>
+        <v>0.8989762503360555</v>
       </c>
       <c r="T4">
-        <v>1.054742298580954</v>
+        <v>0.9355556047170813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.06339414414548</v>
+        <v>0.2442284390997962</v>
       </c>
       <c r="D5">
-        <v>0.8698108697876155</v>
+        <v>-0.001917207385606613</v>
       </c>
       <c r="E5">
-        <v>0.8698108697876155</v>
+        <v>-0.001917207385606613</v>
       </c>
       <c r="F5">
-        <v>1.025214346175156</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="G5">
-        <v>1.025214346175156</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="H5">
-        <v>1.00139079472356</v>
+        <v>0.003148834737184904</v>
       </c>
       <c r="I5">
-        <v>0.8219686137087898</v>
+        <v>-0.009860018136912351</v>
       </c>
       <c r="J5">
-        <v>0.8974883666049408</v>
+        <v>0.597081557134147</v>
       </c>
       <c r="K5">
-        <v>1.025214346175156</v>
+        <v>4.498057081616571</v>
       </c>
       <c r="L5">
-        <v>1.06339414414548</v>
+        <v>0.2442284390997962</v>
       </c>
       <c r="M5">
-        <v>0.9666025069665478</v>
+        <v>0.1211556158570948</v>
       </c>
       <c r="N5">
-        <v>0.9666025069665478</v>
+        <v>0.1211556158570948</v>
       </c>
       <c r="O5">
-        <v>0.978198602885552</v>
+        <v>0.08182002215045818</v>
       </c>
       <c r="P5">
-        <v>0.9861397867027506</v>
+        <v>1.580122771110253</v>
       </c>
       <c r="Q5">
-        <v>0.9861397867027506</v>
+        <v>1.580122771110253</v>
       </c>
       <c r="R5">
-        <v>0.995908426570852</v>
+        <v>2.309606348736833</v>
       </c>
       <c r="S5">
-        <v>0.995908426570852</v>
+        <v>2.309606348736833</v>
       </c>
       <c r="T5">
-        <v>0.9465445225242571</v>
+        <v>0.8884564478441966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5141358032642476</v>
+        <v>1.048157639543576</v>
       </c>
       <c r="D6">
-        <v>0.5231950007778008</v>
+        <v>0.8127937962736405</v>
       </c>
       <c r="E6">
-        <v>0.5231950007778008</v>
+        <v>0.8127937962736405</v>
       </c>
       <c r="F6">
-        <v>0.3837130746808661</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="G6">
-        <v>0.3837130746808661</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="H6">
-        <v>0.4612288006887466</v>
+        <v>0.80426399779228</v>
       </c>
       <c r="I6">
-        <v>0.4462406753335714</v>
+        <v>1.737926693601276</v>
       </c>
       <c r="J6">
-        <v>0.4638329496062827</v>
+        <v>0.9784465275178501</v>
       </c>
       <c r="K6">
-        <v>0.3837130746808661</v>
+        <v>0.9468651367571009</v>
       </c>
       <c r="L6">
-        <v>0.5141358032642476</v>
+        <v>1.048157639543576</v>
       </c>
       <c r="M6">
-        <v>0.5186654020210242</v>
+        <v>0.9304757179086083</v>
       </c>
       <c r="N6">
-        <v>0.5186654020210242</v>
+        <v>0.9304757179086083</v>
       </c>
       <c r="O6">
-        <v>0.4995198682435983</v>
+        <v>0.8884051445364989</v>
       </c>
       <c r="P6">
-        <v>0.4736812929076382</v>
+        <v>0.9359388575247726</v>
       </c>
       <c r="Q6">
-        <v>0.4736812929076382</v>
+        <v>0.9359388575247726</v>
       </c>
       <c r="R6">
-        <v>0.4511892383509452</v>
+        <v>0.9386704273328547</v>
       </c>
       <c r="S6">
-        <v>0.4511892383509452</v>
+        <v>0.9386704273328547</v>
       </c>
       <c r="T6">
-        <v>0.4653910507252525</v>
+        <v>1.054742298580954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.088294698504657</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="D7">
-        <v>0.9076280260029652</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="E7">
-        <v>0.9076280260029652</v>
+        <v>0.8698108697876155</v>
       </c>
       <c r="F7">
-        <v>1.139226848082019</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="G7">
-        <v>1.139226848082019</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="H7">
-        <v>1.12768230227852</v>
+        <v>1.00139079472356</v>
       </c>
       <c r="I7">
-        <v>0.981162258209054</v>
+        <v>0.8219686137087898</v>
       </c>
       <c r="J7">
-        <v>0.9720338510844156</v>
+        <v>0.8974883666049408</v>
       </c>
       <c r="K7">
-        <v>1.139226848082019</v>
+        <v>1.025214346175156</v>
       </c>
       <c r="L7">
-        <v>1.088294698504657</v>
+        <v>1.06339414414548</v>
       </c>
       <c r="M7">
-        <v>0.9979613622538113</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="N7">
-        <v>0.9979613622538113</v>
+        <v>0.9666025069665478</v>
       </c>
       <c r="O7">
-        <v>1.041201675595381</v>
+        <v>0.978198602885552</v>
       </c>
       <c r="P7">
-        <v>1.045049857529881</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="Q7">
-        <v>1.045049857529881</v>
+        <v>0.9861397867027506</v>
       </c>
       <c r="R7">
-        <v>1.068594105167915</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="S7">
-        <v>1.068594105167915</v>
+        <v>0.995908426570852</v>
       </c>
       <c r="T7">
-        <v>1.036004664026939</v>
+        <v>0.9465445225242571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.055005758586001</v>
+        <v>0.5141358032642476</v>
       </c>
       <c r="D8">
-        <v>0.970521052556197</v>
+        <v>0.5231950007778008</v>
       </c>
       <c r="E8">
-        <v>0.970521052556197</v>
+        <v>0.5231950007778008</v>
       </c>
       <c r="F8">
-        <v>1.074298229070822</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="G8">
-        <v>1.074298229070822</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="H8">
-        <v>1.028389557825304</v>
+        <v>0.4612288006887466</v>
       </c>
       <c r="I8">
-        <v>1.032734754505197</v>
+        <v>0.4462406753335714</v>
       </c>
       <c r="J8">
-        <v>1.007091286890716</v>
+        <v>0.4638329496062827</v>
       </c>
       <c r="K8">
-        <v>1.074298229070822</v>
+        <v>0.3837130746808661</v>
       </c>
       <c r="L8">
-        <v>1.055005758586001</v>
+        <v>0.5141358032642476</v>
       </c>
       <c r="M8">
-        <v>1.012763405571099</v>
+        <v>0.5186654020210242</v>
       </c>
       <c r="N8">
-        <v>1.012763405571099</v>
+        <v>0.5186654020210242</v>
       </c>
       <c r="O8">
-        <v>1.017972122989167</v>
+        <v>0.4995198682435983</v>
       </c>
       <c r="P8">
-        <v>1.03327501340434</v>
+        <v>0.4736812929076382</v>
       </c>
       <c r="Q8">
-        <v>1.03327501340434</v>
+        <v>0.4736812929076382</v>
       </c>
       <c r="R8">
-        <v>1.043530817320961</v>
+        <v>0.4511892383509452</v>
       </c>
       <c r="S8">
-        <v>1.043530817320961</v>
+        <v>0.4511892383509452</v>
       </c>
       <c r="T8">
-        <v>1.02800677323904</v>
+        <v>0.4653910507252525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.150249053117235</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="D9">
-        <v>0.7815059395026643</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="E9">
-        <v>0.7815059395026643</v>
+        <v>0.9076280260029652</v>
       </c>
       <c r="F9">
-        <v>1.469071175509284</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="G9">
-        <v>1.469071175509284</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="H9">
-        <v>1.452668710387369</v>
+        <v>1.12768230227852</v>
       </c>
       <c r="I9">
-        <v>1.020168594590092</v>
+        <v>0.981162258209054</v>
       </c>
       <c r="J9">
-        <v>0.9713222947841953</v>
+        <v>0.9720338510844156</v>
       </c>
       <c r="K9">
-        <v>1.469071175509284</v>
+        <v>1.139226848082019</v>
       </c>
       <c r="L9">
-        <v>1.150249053117235</v>
+        <v>1.088294698504657</v>
       </c>
       <c r="M9">
-        <v>0.9658774963099497</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="N9">
-        <v>0.9658774963099497</v>
+        <v>0.9979613622538113</v>
       </c>
       <c r="O9">
-        <v>1.128141234335756</v>
+        <v>1.041201675595381</v>
       </c>
       <c r="P9">
-        <v>1.133608722709728</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="Q9">
-        <v>1.133608722709728</v>
+        <v>1.045049857529881</v>
       </c>
       <c r="R9">
-        <v>1.217474335909617</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="S9">
-        <v>1.217474335909617</v>
+        <v>1.068594105167915</v>
       </c>
       <c r="T9">
-        <v>1.14083096131514</v>
+        <v>1.036004664026939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.534351356663731</v>
+        <v>1.055005758586001</v>
       </c>
       <c r="D10">
-        <v>0.3934263591388409</v>
+        <v>0.970521052556197</v>
       </c>
       <c r="E10">
-        <v>0.3934263591388409</v>
+        <v>0.970521052556197</v>
       </c>
       <c r="F10">
-        <v>0.3099535243185774</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="G10">
-        <v>0.3099535243185774</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="H10">
-        <v>0.4994056091792287</v>
+        <v>1.028389557825304</v>
       </c>
       <c r="I10">
-        <v>0.4327874609086681</v>
+        <v>1.032734754505197</v>
       </c>
       <c r="J10">
-        <v>0.4741813206465308</v>
+        <v>1.007091286890716</v>
       </c>
       <c r="K10">
-        <v>0.3099535243185774</v>
+        <v>1.074298229070822</v>
       </c>
       <c r="L10">
-        <v>0.534351356663731</v>
+        <v>1.055005758586001</v>
       </c>
       <c r="M10">
-        <v>0.463888857901286</v>
+        <v>1.012763405571099</v>
       </c>
       <c r="N10">
-        <v>0.463888857901286</v>
+        <v>1.012763405571099</v>
       </c>
       <c r="O10">
-        <v>0.4757277749939335</v>
+        <v>1.017972122989167</v>
       </c>
       <c r="P10">
-        <v>0.4125770800403831</v>
+        <v>1.03327501340434</v>
       </c>
       <c r="Q10">
-        <v>0.4125770800403831</v>
+        <v>1.03327501340434</v>
       </c>
       <c r="R10">
-        <v>0.3869211911099317</v>
+        <v>1.043530817320961</v>
       </c>
       <c r="S10">
-        <v>0.3869211911099317</v>
+        <v>1.043530817320961</v>
       </c>
       <c r="T10">
-        <v>0.4406842718092628</v>
+        <v>1.02800677323904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.079164606236962</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="D11">
-        <v>0.7150680963170207</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="E11">
-        <v>0.7150680963170207</v>
+        <v>0.7815059395026643</v>
       </c>
       <c r="F11">
-        <v>0.8552419773614345</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="G11">
-        <v>0.8552419773614345</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="H11">
-        <v>0.8447304279190587</v>
+        <v>1.452668710387369</v>
       </c>
       <c r="I11">
-        <v>0.9417393805838445</v>
+        <v>1.020168594590092</v>
       </c>
       <c r="J11">
-        <v>1.031378082150581</v>
+        <v>0.9713222947841953</v>
       </c>
       <c r="K11">
-        <v>0.8552419773614345</v>
+        <v>1.469071175509284</v>
       </c>
       <c r="L11">
-        <v>1.079164606236962</v>
+        <v>1.150249053117235</v>
       </c>
       <c r="M11">
-        <v>0.8971163512769915</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="N11">
-        <v>0.8971163512769915</v>
+        <v>0.9658774963099497</v>
       </c>
       <c r="O11">
-        <v>0.8796543768243472</v>
+        <v>1.128141234335756</v>
       </c>
       <c r="P11">
-        <v>0.8831582266384724</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="Q11">
-        <v>0.8831582266384724</v>
+        <v>1.133608722709728</v>
       </c>
       <c r="R11">
-        <v>0.8761791643192129</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="S11">
-        <v>0.8761791643192129</v>
+        <v>1.217474335909617</v>
       </c>
       <c r="T11">
-        <v>0.9112204284281501</v>
+        <v>1.14083096131514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.098024033781389</v>
+        <v>0.534351356663731</v>
       </c>
       <c r="D12">
-        <v>0.7191203928120624</v>
+        <v>0.3934263591388409</v>
       </c>
       <c r="E12">
-        <v>0.7191203928120624</v>
+        <v>0.3934263591388409</v>
       </c>
       <c r="F12">
-        <v>0.5866634464548296</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="G12">
-        <v>0.5866634464548296</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="H12">
-        <v>0.8843291286188738</v>
+        <v>0.4994056091792287</v>
       </c>
       <c r="I12">
-        <v>0.952058700816023</v>
+        <v>0.4327874609086681</v>
       </c>
       <c r="J12">
-        <v>0.9141500375877287</v>
+        <v>0.4741813206465308</v>
       </c>
       <c r="K12">
-        <v>0.5866634464548296</v>
+        <v>0.3099535243185774</v>
       </c>
       <c r="L12">
-        <v>1.098024033781389</v>
+        <v>0.534351356663731</v>
       </c>
       <c r="M12">
-        <v>0.9085722132967259</v>
+        <v>0.463888857901286</v>
       </c>
       <c r="N12">
-        <v>0.9085722132967259</v>
+        <v>0.463888857901286</v>
       </c>
       <c r="O12">
-        <v>0.9004911850707752</v>
+        <v>0.4757277749939335</v>
       </c>
       <c r="P12">
-        <v>0.8012692910160938</v>
+        <v>0.4125770800403831</v>
       </c>
       <c r="Q12">
-        <v>0.8012692910160938</v>
+        <v>0.4125770800403831</v>
       </c>
       <c r="R12">
-        <v>0.7476178298757777</v>
+        <v>0.3869211911099317</v>
       </c>
       <c r="S12">
-        <v>0.7476178298757777</v>
+        <v>0.3869211911099317</v>
       </c>
       <c r="T12">
-        <v>0.8590576233451511</v>
+        <v>0.4406842718092628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.033008305857226</v>
+        <v>1.079164606236962</v>
       </c>
       <c r="D13">
-        <v>0.7232479323436021</v>
+        <v>0.7150680963170207</v>
       </c>
       <c r="E13">
-        <v>0.7232479323436021</v>
+        <v>0.7150680963170207</v>
       </c>
       <c r="F13">
-        <v>0.6717435407641545</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="G13">
-        <v>0.6717435407641545</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="H13">
-        <v>0.9905776113844961</v>
+        <v>0.8447304279190587</v>
       </c>
       <c r="I13">
-        <v>0.9692812386458088</v>
+        <v>0.9417393805838445</v>
       </c>
       <c r="J13">
-        <v>1.080556754813155</v>
+        <v>1.031378082150581</v>
       </c>
       <c r="K13">
-        <v>0.6717435407641545</v>
+        <v>0.8552419773614345</v>
       </c>
       <c r="L13">
-        <v>1.033008305857226</v>
+        <v>1.079164606236962</v>
       </c>
       <c r="M13">
-        <v>0.8781281191004139</v>
+        <v>0.8971163512769915</v>
       </c>
       <c r="N13">
-        <v>0.8781281191004139</v>
+        <v>0.8971163512769915</v>
       </c>
       <c r="O13">
-        <v>0.915611283195108</v>
+        <v>0.8796543768243472</v>
       </c>
       <c r="P13">
-        <v>0.809333259654994</v>
+        <v>0.8831582266384724</v>
       </c>
       <c r="Q13">
-        <v>0.809333259654994</v>
+        <v>0.8831582266384724</v>
       </c>
       <c r="R13">
-        <v>0.7749358299322842</v>
+        <v>0.8761791643192129</v>
       </c>
       <c r="S13">
-        <v>0.7749358299322842</v>
+        <v>0.8761791643192129</v>
       </c>
       <c r="T13">
-        <v>0.9114025639680735</v>
+        <v>0.9112204284281501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.004449427499999996</v>
+        <v>1.098024033781389</v>
       </c>
       <c r="D14">
-        <v>0.001717189100000001</v>
+        <v>0.7191203928120624</v>
       </c>
       <c r="E14">
-        <v>0.001717189100000001</v>
+        <v>0.7191203928120624</v>
       </c>
       <c r="F14">
-        <v>-0.004928100800000001</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="G14">
-        <v>-0.004928100800000001</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="H14">
-        <v>0.02911678000000002</v>
+        <v>0.8843291286188738</v>
       </c>
       <c r="I14">
-        <v>0.0006251573999999997</v>
+        <v>0.952058700816023</v>
       </c>
       <c r="J14">
-        <v>-0.01173211299999999</v>
+        <v>0.9141500375877287</v>
       </c>
       <c r="K14">
-        <v>-0.004928100800000001</v>
+        <v>0.5866634464548296</v>
       </c>
       <c r="L14">
-        <v>0.004449427499999996</v>
+        <v>1.098024033781389</v>
       </c>
       <c r="M14">
-        <v>0.003083308299999999</v>
+        <v>0.9085722132967259</v>
       </c>
       <c r="N14">
-        <v>0.003083308299999999</v>
+        <v>0.9085722132967259</v>
       </c>
       <c r="O14">
-        <v>0.0117611322</v>
+        <v>0.9004911850707752</v>
       </c>
       <c r="P14">
-        <v>0.0004128385999999989</v>
+        <v>0.8012692910160938</v>
       </c>
       <c r="Q14">
-        <v>0.0004128385999999989</v>
+        <v>0.8012692910160938</v>
       </c>
       <c r="R14">
-        <v>-0.000922396250000001</v>
+        <v>0.7476178298757777</v>
       </c>
       <c r="S14">
-        <v>-0.000922396250000001</v>
+        <v>0.7476178298757777</v>
       </c>
       <c r="T14">
-        <v>0.003208056700000003</v>
+        <v>0.8590576233451511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.012240956</v>
+        <v>1.033008305857226</v>
       </c>
       <c r="D15">
-        <v>0.00070900843</v>
+        <v>0.7232479323436021</v>
       </c>
       <c r="E15">
-        <v>0.00070900843</v>
+        <v>0.7232479323436021</v>
       </c>
       <c r="F15">
-        <v>121.14151</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="G15">
-        <v>121.14151</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="H15">
-        <v>-0.0017802751</v>
+        <v>0.9905776113844961</v>
       </c>
       <c r="I15">
-        <v>0.010282672</v>
+        <v>0.9692812386458088</v>
       </c>
       <c r="J15">
-        <v>-0.0067091534</v>
+        <v>1.080556754813155</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>0.6717435407641545</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>1.033008305857226</v>
       </c>
       <c r="M15">
-        <v>-0.005765973785000001</v>
+        <v>0.8781281191004139</v>
       </c>
       <c r="N15">
-        <v>-0.005765973785000001</v>
+        <v>0.8781281191004139</v>
       </c>
       <c r="O15">
-        <v>-0.004437407556666668</v>
+        <v>0.915611283195108</v>
       </c>
       <c r="P15">
-        <v>40.37665935080999</v>
+        <v>0.809333259654994</v>
       </c>
       <c r="Q15">
-        <v>40.37665935080999</v>
+        <v>0.809333259654994</v>
       </c>
       <c r="R15">
-        <v>60.5678720131075</v>
+        <v>0.7749358299322842</v>
       </c>
       <c r="S15">
-        <v>60.5678720131075</v>
+        <v>0.7749358299322842</v>
       </c>
       <c r="T15">
-        <v>20.18862854932167</v>
+        <v>0.9114025639680735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.012775414</v>
+        <v>0.004449427499999996</v>
       </c>
       <c r="D16">
-        <v>-0.017068093</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="E16">
-        <v>-0.017068093</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="F16">
-        <v>0.008419015700000001</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="G16">
-        <v>0.008419015700000001</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="H16">
-        <v>0.0026225339</v>
+        <v>0.02911678000000002</v>
       </c>
       <c r="I16">
-        <v>0.035021694</v>
+        <v>0.0006251573999999997</v>
       </c>
       <c r="J16">
-        <v>0.0008526366199999999</v>
+        <v>-0.01173211299999999</v>
       </c>
       <c r="K16">
-        <v>0.008419015700000001</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="L16">
-        <v>0.012775414</v>
+        <v>0.004449427499999996</v>
       </c>
       <c r="M16">
-        <v>-0.002146339499999999</v>
+        <v>0.003083308299999999</v>
       </c>
       <c r="N16">
-        <v>-0.002146339499999999</v>
+        <v>0.003083308299999999</v>
       </c>
       <c r="O16">
-        <v>-0.0005567150333333329</v>
+        <v>0.0117611322</v>
       </c>
       <c r="P16">
-        <v>0.001375445566666667</v>
+        <v>0.0004128385999999989</v>
       </c>
       <c r="Q16">
-        <v>0.001375445566666667</v>
+        <v>0.0004128385999999989</v>
       </c>
       <c r="R16">
-        <v>0.003136338100000001</v>
+        <v>-0.000922396250000001</v>
       </c>
       <c r="S16">
-        <v>0.003136338100000001</v>
+        <v>-0.000922396250000001</v>
       </c>
       <c r="T16">
-        <v>0.00710386687</v>
+        <v>0.003208056700000003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>29.448082</v>
+        <v>-0.012240956</v>
       </c>
       <c r="D17">
-        <v>-0.007828396099999999</v>
+        <v>0.00070900843</v>
       </c>
       <c r="E17">
-        <v>-0.007828396099999999</v>
+        <v>0.00070900843</v>
       </c>
       <c r="F17">
-        <v>4.9002061</v>
+        <v>121.14151</v>
       </c>
       <c r="G17">
-        <v>4.9002061</v>
+        <v>121.14151</v>
       </c>
       <c r="H17">
-        <v>-0.0028558363</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I17">
-        <v>-0.0043976936</v>
+        <v>0.010282672</v>
       </c>
       <c r="J17">
-        <v>-0.008838941600000001</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K17">
-        <v>4.9002061</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>29.448082</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>14.72012680195</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N17">
-        <v>14.72012680195</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O17">
-        <v>9.812465922533333</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P17">
-        <v>11.4468199013</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q17">
-        <v>11.4468199013</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R17">
-        <v>9.810166450975</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S17">
-        <v>9.810166450975</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T17">
-        <v>5.720727872066668</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.416509017963288</v>
+        <v>0.012775414</v>
       </c>
       <c r="D18">
-        <v>0.005367990565616437</v>
+        <v>-0.017068093</v>
       </c>
       <c r="E18">
-        <v>0.005367990565616437</v>
+        <v>-0.017068093</v>
       </c>
       <c r="F18">
-        <v>5.395101662721644</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="G18">
-        <v>5.395101662721644</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="H18">
-        <v>3.360531398154794</v>
+        <v>0.0026225339</v>
       </c>
       <c r="I18">
-        <v>0.001277082022465753</v>
+        <v>0.035021694</v>
       </c>
       <c r="J18">
-        <v>0.0005124869895890411</v>
+        <v>0.0008526366199999999</v>
       </c>
       <c r="K18">
-        <v>5.395101662721644</v>
+        <v>0.008419015700000001</v>
       </c>
       <c r="L18">
-        <v>3.416509017963288</v>
+        <v>0.012775414</v>
       </c>
       <c r="M18">
-        <v>1.710938504264452</v>
+        <v>-0.002146339499999999</v>
       </c>
       <c r="N18">
-        <v>1.710938504264452</v>
+        <v>-0.002146339499999999</v>
       </c>
       <c r="O18">
-        <v>2.2608028022279</v>
+        <v>-0.0005567150333333329</v>
       </c>
       <c r="P18">
-        <v>2.93899289041685</v>
+        <v>0.001375445566666667</v>
       </c>
       <c r="Q18">
-        <v>2.93899289041685</v>
+        <v>0.001375445566666667</v>
       </c>
       <c r="R18">
-        <v>3.553020083493048</v>
+        <v>0.003136338100000001</v>
       </c>
       <c r="S18">
-        <v>3.553020083493048</v>
+        <v>0.003136338100000001</v>
       </c>
       <c r="T18">
-        <v>2.029883273069566</v>
+        <v>0.00710386687</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.569455254963158</v>
+        <v>29.448082</v>
       </c>
       <c r="D19">
-        <v>7.157137927163159</v>
+        <v>-0.007828396099999999</v>
       </c>
       <c r="E19">
-        <v>7.157137927163159</v>
+        <v>-0.007828396099999999</v>
       </c>
       <c r="F19">
-        <v>3.578939852662105</v>
+        <v>4.9002061</v>
       </c>
       <c r="G19">
-        <v>3.578939852662105</v>
+        <v>4.9002061</v>
       </c>
       <c r="H19">
-        <v>0.002526617810526317</v>
+        <v>-0.0028558363</v>
       </c>
       <c r="I19">
-        <v>10.71077124286263</v>
+        <v>-0.0043976936</v>
       </c>
       <c r="J19">
-        <v>-0.007177800078368421</v>
+        <v>-0.008838941600000001</v>
       </c>
       <c r="K19">
-        <v>3.578939852662105</v>
+        <v>4.9002061</v>
       </c>
       <c r="L19">
-        <v>3.569455254963158</v>
+        <v>29.448082</v>
       </c>
       <c r="M19">
-        <v>5.363296591063158</v>
+        <v>14.72012680195</v>
       </c>
       <c r="N19">
-        <v>5.363296591063158</v>
+        <v>14.72012680195</v>
       </c>
       <c r="O19">
-        <v>3.576373266645614</v>
+        <v>9.812465922533333</v>
       </c>
       <c r="P19">
-        <v>4.76851101159614</v>
+        <v>11.4468199013</v>
       </c>
       <c r="Q19">
-        <v>4.768511011596141</v>
+        <v>11.4468199013</v>
       </c>
       <c r="R19">
-        <v>4.471118221862632</v>
+        <v>9.810166450975</v>
       </c>
       <c r="S19">
-        <v>4.471118221862632</v>
+        <v>9.810166450975</v>
       </c>
       <c r="T19">
-        <v>4.168608849230536</v>
+        <v>5.720727872066668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2202202620578947</v>
+        <v>3.416509017963288</v>
       </c>
       <c r="D20">
-        <v>-0.001966119700000002</v>
+        <v>0.005367990565616437</v>
       </c>
       <c r="E20">
-        <v>-0.001966119700000002</v>
+        <v>0.005367990565616437</v>
       </c>
       <c r="F20">
-        <v>6.782521756326316</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="G20">
-        <v>6.782521756326316</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="H20">
-        <v>0.004359355312105264</v>
+        <v>3.360531398154794</v>
       </c>
       <c r="I20">
-        <v>-0.008946837121052632</v>
+        <v>0.001277082022465753</v>
       </c>
       <c r="J20">
-        <v>0.5384407343100001</v>
+        <v>0.0005124869895890411</v>
       </c>
       <c r="K20">
-        <v>6.782521756326316</v>
+        <v>5.395101662721644</v>
       </c>
       <c r="L20">
-        <v>0.2202202620578947</v>
+        <v>3.416509017963288</v>
       </c>
       <c r="M20">
-        <v>0.1091270711789473</v>
+        <v>1.710938504264452</v>
       </c>
       <c r="N20">
-        <v>0.1091270711789473</v>
+        <v>1.710938504264452</v>
       </c>
       <c r="O20">
-        <v>0.07420449922333332</v>
+        <v>2.2608028022279</v>
       </c>
       <c r="P20">
-        <v>2.33359196622807</v>
+        <v>2.93899289041685</v>
       </c>
       <c r="Q20">
-        <v>2.333591966228071</v>
+        <v>2.93899289041685</v>
       </c>
       <c r="R20">
-        <v>3.445824413752632</v>
+        <v>3.553020083493048</v>
       </c>
       <c r="S20">
-        <v>3.445824413752632</v>
+        <v>3.553020083493048</v>
       </c>
       <c r="T20">
-        <v>1.255771525197544</v>
+        <v>2.029883273069566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4295785948804509</v>
+        <v>3.569455254963158</v>
       </c>
       <c r="D21">
-        <v>5.23147111789241</v>
+        <v>7.157137927163159</v>
       </c>
       <c r="E21">
-        <v>5.23147111789241</v>
+        <v>7.157137927163159</v>
       </c>
       <c r="F21">
-        <v>0.001491377477314472</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="G21">
-        <v>0.001491377477314472</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="H21">
-        <v>3.419812016970432</v>
+        <v>0.002526617810526317</v>
       </c>
       <c r="I21">
-        <v>0.3768814454090609</v>
+        <v>10.71077124286263</v>
       </c>
       <c r="J21">
-        <v>0.1532284538066766</v>
+        <v>-0.007177800078368421</v>
       </c>
       <c r="K21">
-        <v>0.001491377477314472</v>
+        <v>3.578939852662105</v>
       </c>
       <c r="L21">
-        <v>0.4295785948804509</v>
+        <v>3.569455254963158</v>
       </c>
       <c r="M21">
-        <v>2.830524856386431</v>
+        <v>5.363296591063158</v>
       </c>
       <c r="N21">
-        <v>2.830524856386431</v>
+        <v>5.363296591063158</v>
       </c>
       <c r="O21">
-        <v>3.026953909914431</v>
+        <v>3.576373266645614</v>
       </c>
       <c r="P21">
-        <v>1.887513696750059</v>
+        <v>4.76851101159614</v>
       </c>
       <c r="Q21">
-        <v>1.887513696750059</v>
+        <v>4.768511011596141</v>
       </c>
       <c r="R21">
-        <v>1.416008116931873</v>
+        <v>4.471118221862632</v>
       </c>
       <c r="S21">
-        <v>1.416008116931873</v>
+        <v>4.471118221862632</v>
       </c>
       <c r="T21">
-        <v>1.602077167739391</v>
+        <v>4.168608849230536</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.826986814728061</v>
+        <v>0.2202202620578947</v>
       </c>
       <c r="D22">
-        <v>-6.389891926698433E-05</v>
+        <v>-0.001966119700000002</v>
       </c>
       <c r="E22">
-        <v>-6.389891926698433E-05</v>
+        <v>-0.001966119700000002</v>
       </c>
       <c r="F22">
-        <v>0.4381435261136661</v>
+        <v>6.782521756326316</v>
       </c>
       <c r="G22">
-        <v>0.4381435261136661</v>
+        <v>6.782521756326316</v>
       </c>
       <c r="H22">
-        <v>1.67992267616932</v>
+        <v>0.004359355312105264</v>
       </c>
       <c r="I22">
-        <v>0.001705017452521932</v>
+        <v>-0.008946837121052632</v>
       </c>
       <c r="J22">
-        <v>2.030803856240341</v>
+        <v>0.5384407343100001</v>
       </c>
       <c r="K22">
-        <v>0.4381435261136661</v>
+        <v>6.782521756326316</v>
       </c>
       <c r="L22">
-        <v>1.826986814728061</v>
+        <v>0.2202202620578947</v>
       </c>
       <c r="M22">
-        <v>0.9134614579043973</v>
+        <v>0.1091270711789473</v>
       </c>
       <c r="N22">
-        <v>0.9134614579043973</v>
+        <v>0.1091270711789473</v>
       </c>
       <c r="O22">
-        <v>1.168948530659372</v>
+        <v>0.07420449922333332</v>
       </c>
       <c r="P22">
-        <v>0.7550221473074868</v>
+        <v>2.33359196622807</v>
       </c>
       <c r="Q22">
-        <v>0.7550221473074868</v>
+        <v>2.333591966228071</v>
       </c>
       <c r="R22">
-        <v>0.6758024920090316</v>
+        <v>3.445824413752632</v>
       </c>
       <c r="S22">
-        <v>0.6758024920090316</v>
+        <v>3.445824413752632</v>
       </c>
       <c r="T22">
-        <v>0.9962496652974405</v>
+        <v>1.255771525197544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.455860173810053</v>
+        <v>0.4295785948804509</v>
       </c>
       <c r="D23">
-        <v>0.000801162831511158</v>
+        <v>5.23147111789241</v>
       </c>
       <c r="E23">
-        <v>0.000801162831511158</v>
+        <v>5.23147111789241</v>
       </c>
       <c r="F23">
-        <v>0.9733623593361579</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="G23">
-        <v>0.9733623593361579</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="H23">
-        <v>1.049289727798779</v>
+        <v>3.419812016970432</v>
       </c>
       <c r="I23">
-        <v>0.0007674696421989481</v>
+        <v>0.3768814454090609</v>
       </c>
       <c r="J23">
-        <v>0.6476216206216451</v>
+        <v>0.1532284538066766</v>
       </c>
       <c r="K23">
-        <v>0.9733623593361579</v>
+        <v>0.001491377477314472</v>
       </c>
       <c r="L23">
-        <v>2.455860173810053</v>
+        <v>0.4295785948804509</v>
       </c>
       <c r="M23">
-        <v>1.228330668320782</v>
+        <v>2.830524856386431</v>
       </c>
       <c r="N23">
-        <v>1.228330668320782</v>
+        <v>2.830524856386431</v>
       </c>
       <c r="O23">
-        <v>1.168650354813448</v>
+        <v>3.026953909914431</v>
       </c>
       <c r="P23">
-        <v>1.143341231992574</v>
+        <v>1.887513696750059</v>
       </c>
       <c r="Q23">
-        <v>1.143341231992574</v>
+        <v>1.887513696750059</v>
       </c>
       <c r="R23">
-        <v>1.10084651382847</v>
+        <v>1.416008116931873</v>
       </c>
       <c r="S23">
-        <v>1.10084651382847</v>
+        <v>1.416008116931873</v>
       </c>
       <c r="T23">
-        <v>0.8546170856733908</v>
+        <v>1.602077167739391</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4508514240154859</v>
+        <v>1.826986814728061</v>
       </c>
       <c r="D24">
-        <v>2.937808520067123</v>
+        <v>-6.389891926698433E-05</v>
       </c>
       <c r="E24">
-        <v>2.937808520067123</v>
+        <v>-6.389891926698433E-05</v>
       </c>
       <c r="F24">
-        <v>0.1851860236774952</v>
+        <v>0.4381435261136661</v>
       </c>
       <c r="G24">
-        <v>0.1851860236774952</v>
+        <v>0.4381435261136661</v>
       </c>
       <c r="H24">
-        <v>0.167598464641344</v>
+        <v>1.67992267616932</v>
       </c>
       <c r="I24">
-        <v>2.724418081173896</v>
+        <v>0.001705017452521932</v>
       </c>
       <c r="J24">
-        <v>0.7517290887995984</v>
+        <v>2.030803856240341</v>
       </c>
       <c r="K24">
-        <v>0.1851860236774952</v>
+        <v>0.4381435261136661</v>
       </c>
       <c r="L24">
-        <v>0.4508514240154859</v>
+        <v>1.826986814728061</v>
       </c>
       <c r="M24">
-        <v>1.694329972041305</v>
+        <v>0.9134614579043973</v>
       </c>
       <c r="N24">
-        <v>1.694329972041305</v>
+        <v>0.9134614579043973</v>
       </c>
       <c r="O24">
-        <v>1.185419469574651</v>
+        <v>1.168948530659372</v>
       </c>
       <c r="P24">
-        <v>1.191281989253368</v>
+        <v>0.7550221473074868</v>
       </c>
       <c r="Q24">
-        <v>1.191281989253368</v>
+        <v>0.7550221473074868</v>
       </c>
       <c r="R24">
-        <v>0.9397579978594</v>
+        <v>0.6758024920090316</v>
       </c>
       <c r="S24">
-        <v>0.9397579978594</v>
+        <v>0.6758024920090316</v>
       </c>
       <c r="T24">
-        <v>1.202931933729157</v>
+        <v>0.9962496652974405</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.01143529985590244</v>
+        <v>2.455860173810053</v>
       </c>
       <c r="D25">
-        <v>-6.856006785645976E-05</v>
+        <v>0.000801162831511158</v>
       </c>
       <c r="E25">
-        <v>-6.856006785645976E-05</v>
+        <v>0.000801162831511158</v>
       </c>
       <c r="F25">
-        <v>5.68249493904516</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="G25">
-        <v>5.68249493904516</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="H25">
-        <v>-0.0005721917695175929</v>
+        <v>1.049289727798779</v>
       </c>
       <c r="I25">
-        <v>0.0002028025507328284</v>
+        <v>0.0007674696421989481</v>
       </c>
       <c r="J25">
-        <v>1.811914788952166</v>
+        <v>0.6476216206216451</v>
       </c>
       <c r="K25">
-        <v>5.68249493904516</v>
+        <v>0.9733623593361579</v>
       </c>
       <c r="L25">
-        <v>0.01143529985590244</v>
+        <v>2.455860173810053</v>
       </c>
       <c r="M25">
-        <v>0.005683369894022988</v>
+        <v>1.228330668320782</v>
       </c>
       <c r="N25">
-        <v>0.005683369894022988</v>
+        <v>1.228330668320782</v>
       </c>
       <c r="O25">
-        <v>0.003598182672842794</v>
+        <v>1.168650354813448</v>
       </c>
       <c r="P25">
-        <v>1.897953892944402</v>
+        <v>1.143341231992574</v>
       </c>
       <c r="Q25">
-        <v>1.897953892944402</v>
+        <v>1.143341231992574</v>
       </c>
       <c r="R25">
-        <v>2.844089154469591</v>
+        <v>1.10084651382847</v>
       </c>
       <c r="S25">
-        <v>2.844089154469591</v>
+        <v>1.10084651382847</v>
       </c>
       <c r="T25">
-        <v>1.250901179761098</v>
+        <v>0.8546170856733908</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.173242833301661</v>
+        <v>0.4508514240154859</v>
       </c>
       <c r="D26">
-        <v>0.001068980339795612</v>
+        <v>2.937808520067123</v>
       </c>
       <c r="E26">
-        <v>0.001068980339795612</v>
+        <v>2.937808520067123</v>
       </c>
       <c r="F26">
-        <v>0.0001585843565978693</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="G26">
-        <v>0.0001585843565978693</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="H26">
-        <v>1.744833413606196</v>
+        <v>0.167598464641344</v>
       </c>
       <c r="I26">
-        <v>3.626570120374998</v>
+        <v>2.724418081173896</v>
       </c>
       <c r="J26">
-        <v>1.505873211767682</v>
+        <v>0.7517290887995984</v>
       </c>
       <c r="K26">
-        <v>0.0001585843565978693</v>
+        <v>0.1851860236774952</v>
       </c>
       <c r="L26">
-        <v>2.173242833301661</v>
+        <v>0.4508514240154859</v>
       </c>
       <c r="M26">
-        <v>1.087155906820728</v>
+        <v>1.694329972041305</v>
       </c>
       <c r="N26">
-        <v>1.087155906820728</v>
+        <v>1.694329972041305</v>
       </c>
       <c r="O26">
-        <v>1.306381742415884</v>
+        <v>1.185419469574651</v>
       </c>
       <c r="P26">
-        <v>0.7248234659993514</v>
+        <v>1.191281989253368</v>
       </c>
       <c r="Q26">
-        <v>0.7248234659993514</v>
+        <v>1.191281989253368</v>
       </c>
       <c r="R26">
-        <v>0.543657245588663</v>
+        <v>0.9397579978594</v>
       </c>
       <c r="S26">
-        <v>0.543657245588663</v>
+        <v>0.9397579978594</v>
       </c>
       <c r="T26">
-        <v>1.508624523957822</v>
+        <v>1.202931933729157</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.003618314439536923</v>
+        <v>0.01143529985590244</v>
       </c>
       <c r="D27">
-        <v>7.469479689614475</v>
+        <v>-6.856006785645976E-05</v>
       </c>
       <c r="E27">
-        <v>7.469479689614475</v>
+        <v>-6.856006785645976E-05</v>
       </c>
       <c r="F27">
-        <v>0.3366291473298967</v>
+        <v>5.68249493904516</v>
       </c>
       <c r="G27">
-        <v>0.3366291473298967</v>
+        <v>5.68249493904516</v>
       </c>
       <c r="H27">
-        <v>0.002688517673063215</v>
+        <v>-0.0005721917695175929</v>
       </c>
       <c r="I27">
-        <v>9.298141486686823</v>
+        <v>0.0002028025507328284</v>
       </c>
       <c r="J27">
-        <v>1.050409114852244</v>
+        <v>1.811914788952166</v>
       </c>
       <c r="K27">
-        <v>0.3366291473298967</v>
+        <v>5.68249493904516</v>
       </c>
       <c r="L27">
-        <v>-0.003618314439536923</v>
+        <v>0.01143529985590244</v>
       </c>
       <c r="M27">
-        <v>3.732930687587469</v>
+        <v>0.005683369894022988</v>
       </c>
       <c r="N27">
-        <v>3.732930687587469</v>
+        <v>0.005683369894022988</v>
       </c>
       <c r="O27">
-        <v>2.489516630949334</v>
+        <v>0.003598182672842794</v>
       </c>
       <c r="P27">
-        <v>2.600830174168278</v>
+        <v>1.897953892944402</v>
       </c>
       <c r="Q27">
-        <v>2.600830174168278</v>
+        <v>1.897953892944402</v>
       </c>
       <c r="R27">
-        <v>2.034779917458683</v>
+        <v>2.844089154469591</v>
       </c>
       <c r="S27">
-        <v>2.034779917458683</v>
+        <v>2.844089154469591</v>
       </c>
       <c r="T27">
-        <v>3.025621606952827</v>
+        <v>1.250901179761098</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7712057217646897</v>
+        <v>2.173242833301661</v>
       </c>
       <c r="D28">
-        <v>0.001913379107838458</v>
+        <v>0.001068980339795612</v>
       </c>
       <c r="E28">
-        <v>0.001913379107838458</v>
+        <v>0.001068980339795612</v>
       </c>
       <c r="F28">
-        <v>1.408246006751931</v>
+        <v>0.0001585843565978693</v>
       </c>
       <c r="G28">
-        <v>1.408246006751931</v>
+        <v>0.0001585843565978693</v>
       </c>
       <c r="H28">
-        <v>1.57388369995671</v>
+        <v>1.744833413606196</v>
       </c>
       <c r="I28">
-        <v>-0.006347510362183717</v>
+        <v>3.626570120374998</v>
       </c>
       <c r="J28">
-        <v>0.1321378405359183</v>
+        <v>1.505873211767682</v>
       </c>
       <c r="K28">
-        <v>1.408246006751931</v>
+        <v>0.0001585843565978693</v>
       </c>
       <c r="L28">
-        <v>0.7712057217646897</v>
+        <v>2.173242833301661</v>
       </c>
       <c r="M28">
-        <v>0.3865595504362641</v>
+        <v>1.087155906820728</v>
       </c>
       <c r="N28">
-        <v>0.3865595504362641</v>
+        <v>1.087155906820728</v>
       </c>
       <c r="O28">
-        <v>0.7823342669430794</v>
+        <v>1.306381742415884</v>
       </c>
       <c r="P28">
-        <v>0.7271217025414863</v>
+        <v>0.7248234659993514</v>
       </c>
       <c r="Q28">
-        <v>0.7271217025414863</v>
+        <v>0.7248234659993514</v>
       </c>
       <c r="R28">
-        <v>0.8974027785940974</v>
+        <v>0.543657245588663</v>
       </c>
       <c r="S28">
-        <v>0.8974027785940974</v>
+        <v>0.543657245588663</v>
       </c>
       <c r="T28">
-        <v>0.646839856292484</v>
+        <v>1.508624523957822</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.003618314439536923</v>
+      </c>
+      <c r="D29">
+        <v>7.469479689614475</v>
+      </c>
+      <c r="E29">
+        <v>7.469479689614475</v>
+      </c>
+      <c r="F29">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="G29">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="H29">
+        <v>0.002688517673063215</v>
+      </c>
+      <c r="I29">
+        <v>9.298141486686823</v>
+      </c>
+      <c r="J29">
+        <v>1.050409114852244</v>
+      </c>
+      <c r="K29">
+        <v>0.3366291473298967</v>
+      </c>
+      <c r="L29">
+        <v>-0.003618314439536923</v>
+      </c>
+      <c r="M29">
+        <v>3.732930687587469</v>
+      </c>
+      <c r="N29">
+        <v>3.732930687587469</v>
+      </c>
+      <c r="O29">
+        <v>2.489516630949334</v>
+      </c>
+      <c r="P29">
+        <v>2.600830174168278</v>
+      </c>
+      <c r="Q29">
+        <v>2.600830174168278</v>
+      </c>
+      <c r="R29">
+        <v>2.034779917458683</v>
+      </c>
+      <c r="S29">
+        <v>2.034779917458683</v>
+      </c>
+      <c r="T29">
+        <v>3.025621606952827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7712057217646897</v>
+      </c>
+      <c r="D30">
+        <v>0.001913379107838458</v>
+      </c>
+      <c r="E30">
+        <v>0.001913379107838458</v>
+      </c>
+      <c r="F30">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="G30">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="H30">
+        <v>1.57388369995671</v>
+      </c>
+      <c r="I30">
+        <v>-0.006347510362183717</v>
+      </c>
+      <c r="J30">
+        <v>0.1321378405359183</v>
+      </c>
+      <c r="K30">
+        <v>1.408246006751931</v>
+      </c>
+      <c r="L30">
+        <v>0.7712057217646897</v>
+      </c>
+      <c r="M30">
+        <v>0.3865595504362641</v>
+      </c>
+      <c r="N30">
+        <v>0.3865595504362641</v>
+      </c>
+      <c r="O30">
+        <v>0.7823342669430794</v>
+      </c>
+      <c r="P30">
+        <v>0.7271217025414863</v>
+      </c>
+      <c r="Q30">
+        <v>0.7271217025414863</v>
+      </c>
+      <c r="R30">
+        <v>0.8974027785940974</v>
+      </c>
+      <c r="S30">
+        <v>0.8974027785940974</v>
+      </c>
+      <c r="T30">
+        <v>0.646839856292484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.2088380626328008</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.00857632445205341</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>-0.00857632445205341</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.0131197658112737</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.0131197658112737</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8540990208890146</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.01081245183200102</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.007431728347854618</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.0131197658112737</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.2088380626328008</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.1001308690903737</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.1001308690903737</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.3514535863565873</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.07112716799734037</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.07112716799734038</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.05662531745082371</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.05662531745082371</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.1773499668994816</v>
       </c>
     </row>
